--- a/webdownload/files/Countries.xlsx
+++ b/webdownload/files/Countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0582E155-19E7-47D1-98DB-6F61A5476F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF02EC6F-CC4A-4CA8-8F48-7DB5AED79AF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8135E593-2244-9141-AD95-15B174B66CDB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="99">
   <si>
     <t>Rank</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>The Countries With The Most People Living Overseas (2014)</t>
+  </si>
+  <si>
+    <t>Crime Index by Country 2020 Mid-Year</t>
+  </si>
+  <si>
+    <t>Rank /133</t>
+  </si>
+  <si>
+    <t>Crime Index</t>
+  </si>
+  <si>
+    <t>Safety Index</t>
   </si>
 </sst>
 </file>
@@ -472,8 +484,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -490,23 +514,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="55">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1219,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157B9841-E19E-7940-B487-B36C470A6391}">
-  <dimension ref="B1:BUT130"/>
+  <dimension ref="B1:BUT141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1235,14 +1278,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:1918" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -5181,14 +5224,14 @@
     <row r="10" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:1918" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="2:1918" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -5197,11 +5240,11 @@
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5214,8 +5257,8 @@
       <c r="D14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5228,8 +5271,8 @@
       <c r="D15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5242,8 +5285,8 @@
       <c r="D16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -5256,8 +5299,8 @@
       <c r="D17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5270,8 +5313,8 @@
       <c r="D18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -5284,8 +5327,8 @@
       <c r="D19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -5298,19 +5341,19 @@
       <c r="D20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="1"/>
     </row>
     <row r="23" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -5409,14 +5452,14 @@
       <c r="G31" s="1"/>
     </row>
     <row r="34" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
@@ -5579,14 +5622,14 @@
       </c>
     </row>
     <row r="45" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="23"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
@@ -5701,14 +5744,14 @@
       <c r="G53" s="1"/>
     </row>
     <row r="56" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="23"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="27"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
@@ -5855,14 +5898,14 @@
       <c r="G64" s="9"/>
     </row>
     <row r="67" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="23"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="27"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
@@ -6009,14 +6052,14 @@
       <c r="G75" s="9"/>
     </row>
     <row r="78" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="23"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="27"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
@@ -6147,14 +6190,14 @@
       <c r="G86" s="9"/>
     </row>
     <row r="89" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="23"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="27"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
@@ -6285,14 +6328,14 @@
       <c r="G97" s="9"/>
     </row>
     <row r="100" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="23"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="27"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
@@ -6423,14 +6466,14 @@
       <c r="G108" s="9"/>
     </row>
     <row r="111" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="21" t="s">
+      <c r="B111" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="23"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="27"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
@@ -6561,14 +6604,14 @@
       <c r="G119" s="9"/>
     </row>
     <row r="122" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="21" t="s">
+      <c r="B122" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="23"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="27"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
@@ -6580,10 +6623,10 @@
       <c r="D123" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E123" s="24" t="s">
+      <c r="E123" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F123" s="25"/>
+      <c r="F123" s="29"/>
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -6599,7 +6642,7 @@
       <c r="E124" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F124" s="20"/>
+      <c r="F124" s="21"/>
       <c r="G124" s="9"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -6615,7 +6658,7 @@
       <c r="E125" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F125" s="20"/>
+      <c r="F125" s="21"/>
       <c r="G125" s="9"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -6631,7 +6674,7 @@
       <c r="E126" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F126" s="20"/>
+      <c r="F126" s="21"/>
       <c r="G126" s="9"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -6647,7 +6690,7 @@
       <c r="E127" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F127" s="20"/>
+      <c r="F127" s="21"/>
       <c r="G127" s="15"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
@@ -6663,7 +6706,7 @@
       <c r="E128" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F128" s="20"/>
+      <c r="F128" s="21"/>
       <c r="G128" s="9"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -6679,7 +6722,7 @@
       <c r="E129" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F129" s="20"/>
+      <c r="F129" s="21"/>
       <c r="G129" s="9"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -6695,11 +6738,170 @@
       <c r="E130" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F130" s="20"/>
+      <c r="F130" s="21"/>
       <c r="G130" s="9"/>
     </row>
+    <row r="133" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C133" s="26"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="27"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" s="7">
+        <v>9</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="8">
+        <v>21.58</v>
+      </c>
+      <c r="E135" s="8">
+        <v>78.42</v>
+      </c>
+      <c r="F135" s="11"/>
+      <c r="G135" s="9"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="7">
+        <v>14</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="8">
+        <v>23.7</v>
+      </c>
+      <c r="E136" s="8">
+        <v>76.3</v>
+      </c>
+      <c r="F136" s="11"/>
+      <c r="G136" s="9"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="7">
+        <v>15</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="8">
+        <v>24.43</v>
+      </c>
+      <c r="E137" s="8">
+        <v>75.569999999999993</v>
+      </c>
+      <c r="F137" s="11"/>
+      <c r="G137" s="9"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="7">
+        <v>20</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="8">
+        <v>26.09</v>
+      </c>
+      <c r="E138" s="8">
+        <v>73.91</v>
+      </c>
+      <c r="F138" s="11"/>
+      <c r="G138" s="15"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="7">
+        <v>23</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="8">
+        <v>27.15</v>
+      </c>
+      <c r="E139" s="8">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="F139" s="11"/>
+      <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="7">
+        <v>42</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="8">
+        <v>34.619999999999997</v>
+      </c>
+      <c r="E140" s="8">
+        <v>65.38</v>
+      </c>
+      <c r="F140" s="11"/>
+      <c r="G140" s="9"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="7">
+        <v>74</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="8">
+        <v>45.68</v>
+      </c>
+      <c r="E141" s="8">
+        <v>54.32</v>
+      </c>
+      <c r="F141" s="11"/>
+      <c r="G141" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B45:G45"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D20:F20"/>
@@ -6708,206 +6910,200 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
   </mergeCells>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="50" priority="48" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="54" priority="52" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:G22 E3:G9 E32:G33 E43:G44">
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="51" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I50">
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G20">
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:G31">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:G42">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:G53">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:G64">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:G75">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:G86">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:G97">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:G108">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113:G119">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:E130 G124:G130">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E124)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135:G141">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",E135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E135)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E124)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Low",E135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webdownload/files/Countries.xlsx
+++ b/webdownload/files/Countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF02EC6F-CC4A-4CA8-8F48-7DB5AED79AF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF986003-648B-4826-A07A-79C3E6688F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8135E593-2244-9141-AD95-15B174B66CDB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="105">
   <si>
     <t>Rank</t>
   </si>
@@ -322,6 +322,24 @@
   </si>
   <si>
     <t>Safety Index</t>
+  </si>
+  <si>
+    <t>Deaths (Inhabitants)</t>
+  </si>
+  <si>
+    <t>Deaths (Vehicles)</t>
+  </si>
+  <si>
+    <t>List of countries by traffic-related death rate (per 100,000 Inhabitants/Vehicles)</t>
+  </si>
+  <si>
+    <t>Deaths (1 Billion Km)</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2016</t>
   </si>
 </sst>
 </file>
@@ -481,13 +499,28 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -499,26 +532,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="59">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1262,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157B9841-E19E-7940-B487-B36C470A6391}">
-  <dimension ref="B1:BUT141"/>
+  <dimension ref="B1:BUT152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1278,14 +1327,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:1918" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -5224,14 +5273,14 @@
     <row r="10" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:1918" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="2:1918" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -5240,11 +5289,11 @@
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5254,11 +5303,11 @@
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5268,11 +5317,11 @@
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5282,11 +5331,11 @@
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -5296,11 +5345,11 @@
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5310,11 +5359,11 @@
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -5324,11 +5373,11 @@
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -5338,22 +5387,22 @@
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="1"/>
     </row>
     <row r="23" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -5452,14 +5501,14 @@
       <c r="G31" s="1"/>
     </row>
     <row r="34" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
@@ -5622,14 +5671,14 @@
       </c>
     </row>
     <row r="45" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="27"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
@@ -5744,14 +5793,14 @@
       <c r="G53" s="1"/>
     </row>
     <row r="56" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="27"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
@@ -5898,14 +5947,14 @@
       <c r="G64" s="9"/>
     </row>
     <row r="67" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="27"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="21"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
@@ -6052,14 +6101,14 @@
       <c r="G75" s="9"/>
     </row>
     <row r="78" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="27"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="21"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
@@ -6190,14 +6239,14 @@
       <c r="G86" s="9"/>
     </row>
     <row r="89" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="27"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="21"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
@@ -6328,14 +6377,14 @@
       <c r="G97" s="9"/>
     </row>
     <row r="100" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="25" t="s">
+      <c r="B100" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="27"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="21"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
@@ -6466,14 +6515,14 @@
       <c r="G108" s="9"/>
     </row>
     <row r="111" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="25" t="s">
+      <c r="B111" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="27"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="21"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
@@ -6604,14 +6653,14 @@
       <c r="G119" s="9"/>
     </row>
     <row r="122" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="25" t="s">
+      <c r="B122" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="27"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="21"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
@@ -6623,10 +6672,10 @@
       <c r="D123" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E123" s="28" t="s">
+      <c r="E123" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F123" s="29"/>
+      <c r="F123" s="25"/>
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -6639,10 +6688,10 @@
       <c r="D124" s="14">
         <v>7800</v>
       </c>
-      <c r="E124" s="19" t="s">
+      <c r="E124" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F124" s="21"/>
+      <c r="F124" s="23"/>
       <c r="G124" s="9"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -6655,10 +6704,10 @@
       <c r="D125" s="14">
         <v>916</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F125" s="21"/>
+      <c r="F125" s="23"/>
       <c r="G125" s="9"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -6671,10 +6720,10 @@
       <c r="D126" s="14">
         <v>94430</v>
       </c>
-      <c r="E126" s="19" t="s">
+      <c r="E126" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F126" s="21"/>
+      <c r="F126" s="23"/>
       <c r="G126" s="9"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -6687,10 +6736,10 @@
       <c r="D127" s="14">
         <v>37540</v>
       </c>
-      <c r="E127" s="19" t="s">
+      <c r="E127" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F127" s="21"/>
+      <c r="F127" s="23"/>
       <c r="G127" s="15"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
@@ -6703,10 +6752,10 @@
       <c r="D128" s="14">
         <v>53888</v>
       </c>
-      <c r="E128" s="19" t="s">
+      <c r="E128" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F128" s="21"/>
+      <c r="F128" s="23"/>
       <c r="G128" s="9"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -6719,10 +6768,10 @@
       <c r="D129" s="14">
         <v>110168</v>
       </c>
-      <c r="E129" s="19" t="s">
+      <c r="E129" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F129" s="21"/>
+      <c r="F129" s="23"/>
       <c r="G129" s="9"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -6735,21 +6784,21 @@
       <c r="D130" s="14">
         <v>135955</v>
       </c>
-      <c r="E130" s="19" t="s">
+      <c r="E130" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F130" s="21"/>
+      <c r="F130" s="23"/>
       <c r="G130" s="9"/>
     </row>
     <row r="133" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="25" t="s">
+      <c r="B133" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="27"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="21"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
@@ -6879,24 +6928,179 @@
       <c r="F141" s="11"/>
       <c r="G141" s="9"/>
     </row>
+    <row r="144" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="21"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="7">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="11">
+        <v>2</v>
+      </c>
+      <c r="E146" s="11">
+        <v>3</v>
+      </c>
+      <c r="F146" s="11">
+        <v>3</v>
+      </c>
+      <c r="G146" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="7">
+        <v>2</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E147" s="11">
+        <v>3.7</v>
+      </c>
+      <c r="F147" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="G147" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="7">
+        <v>3</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="E148" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="F148" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="G148" s="9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="7">
+        <v>4</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="E149" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="F149" s="11">
+        <v>3.9</v>
+      </c>
+      <c r="G149" s="17">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="7">
+        <v>5</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="E150" s="11">
+        <v>6</v>
+      </c>
+      <c r="F150" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="G150" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151" s="7">
+        <v>6</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="E151" s="11">
+        <v>6.1</v>
+      </c>
+      <c r="F151" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G151" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="7">
+        <v>7</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="11">
+        <v>6.6</v>
+      </c>
+      <c r="E152" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="F152" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B100:G100"/>
+  <mergeCells count="30">
+    <mergeCell ref="B144:G144"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B23:G23"/>
@@ -6910,200 +7114,230 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
   </mergeCells>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="54" priority="52" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="58" priority="56" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:G22 E3:G9 E32:G33 E43:G44">
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="54" priority="59" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I50">
-    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G20">
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:G31">
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:G42">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:G53">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:G64">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:G75">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:G86">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:G97">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:G108">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113:G119">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:E130 G124:G130">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:G141">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E135)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E146:G152">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",E146)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E146)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E146)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E135)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Low",E146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webdownload/files/Countries.xlsx
+++ b/webdownload/files/Countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF986003-648B-4826-A07A-79C3E6688F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3D4ACD-56DB-4806-BDFB-382883CE7D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8135E593-2244-9141-AD95-15B174B66CDB}"/>
+    <workbookView xWindow="17520" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{8135E593-2244-9141-AD95-15B174B66CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracking Template" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="150">
   <si>
     <t>Rank</t>
   </si>
@@ -340,6 +340,141 @@
   </si>
   <si>
     <t>2016</t>
+  </si>
+  <si>
+    <t>Rank /223</t>
+  </si>
+  <si>
+    <t>List of countries by incarceration rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Incarceration Rate</t>
+  </si>
+  <si>
+    <t>Prison Population</t>
+  </si>
+  <si>
+    <t>Religions by country 2010</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Muslim</t>
+  </si>
+  <si>
+    <t>No Religion</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>6,745,560 (80.40%)</t>
+  </si>
+  <si>
+    <t>304,000 (95%)</t>
+  </si>
+  <si>
+    <t>640 (0.20%)</t>
+  </si>
+  <si>
+    <t>11,200 (3.50%)</t>
+  </si>
+  <si>
+    <t>4,112,400 (92%)</t>
+  </si>
+  <si>
+    <t>49,170 (1.10%)</t>
+  </si>
+  <si>
+    <t>277,140 (6.20%)</t>
+  </si>
+  <si>
+    <t>4,133,360 (84.70%)</t>
+  </si>
+  <si>
+    <t>180,560 (3.70%)</t>
+  </si>
+  <si>
+    <t>492,880 (10.10%)</t>
+  </si>
+  <si>
+    <t>4,634,250 (83.50%)</t>
+  </si>
+  <si>
+    <t>227,550 (4.10%)</t>
+  </si>
+  <si>
+    <t>654,900 (11.80%)</t>
+  </si>
+  <si>
+    <t>453,060 (5.40%)</t>
+  </si>
+  <si>
+    <t>1,132,650 (13.50%)</t>
+  </si>
+  <si>
+    <t>6,227,580 (81.30%)</t>
+  </si>
+  <si>
+    <t>421,300 (5.50%)</t>
+  </si>
+  <si>
+    <t>911,540 (11.90%)</t>
+  </si>
+  <si>
+    <t>8,404,660 (50.60%)</t>
+  </si>
+  <si>
+    <t>996,600 (6.00%)</t>
+  </si>
+  <si>
+    <t>6,992,810 (42.10%)</t>
+  </si>
+  <si>
+    <t>Importance of religion by country (2008)</t>
+  </si>
+  <si>
+    <t>Yes, Important</t>
+  </si>
+  <si>
+    <t>No, Unimportant</t>
+  </si>
+  <si>
+    <t>19%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>43%</t>
   </si>
 </sst>
 </file>
@@ -457,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -511,16 +646,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -532,11 +661,122 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="71">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1311,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157B9841-E19E-7940-B487-B36C470A6391}">
-  <dimension ref="B1:BUT152"/>
+  <dimension ref="B1:BUT185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5289,11 +5529,11 @@
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5306,8 +5546,8 @@
       <c r="D14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5320,8 +5560,8 @@
       <c r="D15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5334,8 +5574,8 @@
       <c r="D16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -5348,8 +5588,8 @@
       <c r="D17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5362,8 +5602,8 @@
       <c r="D18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -5376,8 +5616,8 @@
       <c r="D19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -5390,8 +5630,8 @@
       <c r="D20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="1"/>
     </row>
     <row r="23" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6672,10 +6912,10 @@
       <c r="D123" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E123" s="24" t="s">
+      <c r="E123" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="F123" s="25"/>
+      <c r="F123" s="29"/>
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -6691,7 +6931,7 @@
       <c r="E124" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F124" s="23"/>
+      <c r="F124" s="24"/>
       <c r="G124" s="9"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -6707,7 +6947,7 @@
       <c r="E125" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F125" s="23"/>
+      <c r="F125" s="24"/>
       <c r="G125" s="9"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -6723,7 +6963,7 @@
       <c r="E126" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F126" s="23"/>
+      <c r="F126" s="24"/>
       <c r="G126" s="9"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -6739,7 +6979,7 @@
       <c r="E127" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F127" s="23"/>
+      <c r="F127" s="24"/>
       <c r="G127" s="15"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
@@ -6755,7 +6995,7 @@
       <c r="E128" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F128" s="23"/>
+      <c r="F128" s="24"/>
       <c r="G128" s="9"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -6771,7 +7011,7 @@
       <c r="E129" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F129" s="23"/>
+      <c r="F129" s="24"/>
       <c r="G129" s="9"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -6787,7 +7027,7 @@
       <c r="E130" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F130" s="23"/>
+      <c r="F130" s="24"/>
       <c r="G130" s="9"/>
     </row>
     <row r="133" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7098,8 +7338,471 @@
         <v>104</v>
       </c>
     </row>
+    <row r="155" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="21"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="7">
+        <v>152</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="14">
+        <v>98</v>
+      </c>
+      <c r="E157" s="14">
+        <v>8692</v>
+      </c>
+      <c r="F157" s="11"/>
+      <c r="G157" s="9"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="7">
+        <v>164</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="14">
+        <v>81</v>
+      </c>
+      <c r="E158" s="14">
+        <v>6943</v>
+      </c>
+      <c r="F158" s="11"/>
+      <c r="G158" s="9"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="7">
+        <v>167</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="14">
+        <v>79</v>
+      </c>
+      <c r="E159" s="14">
+        <v>3950</v>
+      </c>
+      <c r="F159" s="11"/>
+      <c r="G159" s="9"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="7">
+        <v>183</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="14">
+        <v>63</v>
+      </c>
+      <c r="E160" s="14">
+        <v>3635</v>
+      </c>
+      <c r="F160" s="11"/>
+      <c r="G160" s="17"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="7">
+        <v>188</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="14">
+        <v>61</v>
+      </c>
+      <c r="E161" s="14">
+        <v>10464</v>
+      </c>
+      <c r="F161" s="11"/>
+      <c r="G161" s="17"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="7">
+        <v>190</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="14">
+        <v>60</v>
+      </c>
+      <c r="E162" s="14">
+        <v>3190</v>
+      </c>
+      <c r="F162" s="11"/>
+      <c r="G162" s="17"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="7">
+        <v>209</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="14">
+        <v>37</v>
+      </c>
+      <c r="E163" s="14">
+        <v>3190</v>
+      </c>
+      <c r="F163" s="11"/>
+      <c r="G163" s="17"/>
+    </row>
+    <row r="166" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+      <c r="E166" s="20"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="21"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="7">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="14">
+        <v>320000</v>
+      </c>
+      <c r="E168" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F168" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G168" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="7">
+        <v>2</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" s="14">
+        <v>4470000</v>
+      </c>
+      <c r="E169" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F169" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G169" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="7">
+        <v>3</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="14">
+        <v>4880000</v>
+      </c>
+      <c r="E170" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F170" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G170" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="7">
+        <v>4</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" s="14">
+        <v>5550000</v>
+      </c>
+      <c r="E171" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F171" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G171" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="7">
+        <v>5</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="14">
+        <v>8390000</v>
+      </c>
+      <c r="E172" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F172" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G172" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="7">
+        <v>6</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="14">
+        <v>7660000</v>
+      </c>
+      <c r="E173" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F173" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G173" s="33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="7">
+        <v>7</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="14">
+        <v>16610000</v>
+      </c>
+      <c r="E174" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F174" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="G174" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="21"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="7">
+        <v>1</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E179" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F179" s="11"/>
+      <c r="G179" s="9"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="7">
+        <v>2</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E180" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F180" s="11"/>
+      <c r="G180" s="9"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B181" s="7">
+        <v>3</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E181" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F181" s="11"/>
+      <c r="G181" s="9"/>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B182" s="7">
+        <v>4</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E182" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F182" s="11"/>
+      <c r="G182" s="17"/>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="7">
+        <v>5</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E183" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F183" s="11"/>
+      <c r="G183" s="17"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B184" s="7">
+        <v>6</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E184" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F184" s="11"/>
+      <c r="G184" s="17"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B185" s="7">
+        <v>7</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E185" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F185" s="11"/>
+      <c r="G185" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="33">
+    <mergeCell ref="B166:G166"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B122:G122"/>
     <mergeCell ref="B144:G144"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B12:G12"/>
@@ -7116,228 +7819,256 @@
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="B56:G56"/>
     <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
   </mergeCells>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="58" priority="56" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="70" priority="68" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:G22 E3:G9 E32:G33 E43:G44">
-    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="69" priority="67" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="67" priority="70" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="59" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="66" priority="71" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I50">
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G20">
-    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="60" priority="64" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:G31">
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:G42">
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:G53">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:G64">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:G75">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:G86">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:G97">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:G108">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113:G119">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:E130 G124:G130">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:G141">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146:G152">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E146)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E146)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E157:G163">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",E157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E157)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E168:G174">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",E168)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E168)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E168)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E168)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E179:G185">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",E179)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E179)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E179)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E146)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Low",E179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webdownload/files/Countries.xlsx
+++ b/webdownload/files/Countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3D4ACD-56DB-4806-BDFB-382883CE7D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC574BD0-BB4A-4174-817E-BF4F2B1039D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17520" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{8135E593-2244-9141-AD95-15B174B66CDB}"/>
+    <workbookView xWindow="10485" yWindow="915" windowWidth="21600" windowHeight="11385" xr2:uid="{8135E593-2244-9141-AD95-15B174B66CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracking Template" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="165">
   <si>
     <t>Rank</t>
   </si>
@@ -342,9 +342,6 @@
     <t>2016</t>
   </si>
   <si>
-    <t>Rank /223</t>
-  </si>
-  <si>
     <t>List of countries by incarceration rate (per 100,000 people)</t>
   </si>
   <si>
@@ -475,14 +472,63 @@
   </si>
   <si>
     <t>43%</t>
+  </si>
+  <si>
+    <t>Prison Density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avarage Length </t>
+  </si>
+  <si>
+    <t>10.3 months</t>
+  </si>
+  <si>
+    <t>5.9 months</t>
+  </si>
+  <si>
+    <t>4.2 months</t>
+  </si>
+  <si>
+    <t>3.5 months</t>
+  </si>
+  <si>
+    <t>10.7 months</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>6.4 months</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>103%</t>
+  </si>
+  <si>
+    <t>Human Development Index</t>
+  </si>
+  <si>
+    <t>Rank /188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 Human Development Index </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -592,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -634,39 +680,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
@@ -679,11 +692,146 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="83">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1551,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157B9841-E19E-7940-B487-B36C470A6391}">
-  <dimension ref="B1:BUT185"/>
+  <dimension ref="B1:BUT196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189:E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1567,14 +1715,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:1918" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -5513,14 +5661,14 @@
     <row r="10" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:1918" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="2:1918" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -5529,11 +5677,11 @@
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5543,11 +5691,11 @@
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5557,11 +5705,11 @@
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5571,11 +5719,11 @@
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -5585,11 +5733,11 @@
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5599,11 +5747,11 @@
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -5613,11 +5761,11 @@
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -5627,22 +5775,22 @@
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="1"/>
     </row>
     <row r="23" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -5741,14 +5889,14 @@
       <c r="G31" s="1"/>
     </row>
     <row r="34" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
@@ -5911,14 +6059,14 @@
       </c>
     </row>
     <row r="45" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
@@ -5945,7 +6093,7 @@
         <v>17134872</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="6"/>
+      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -5959,7 +6107,7 @@
         <v>9006398</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="6"/>
+      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
@@ -5973,7 +6121,7 @@
         <v>8654622</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="6"/>
+      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -5986,7 +6134,7 @@
       <c r="D50" s="14">
         <v>5792202</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
     </row>
@@ -6033,14 +6181,14 @@
       <c r="G53" s="1"/>
     </row>
     <row r="56" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
@@ -6187,14 +6335,14 @@
       <c r="G64" s="9"/>
     </row>
     <row r="67" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="21"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="25"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
@@ -6341,14 +6489,14 @@
       <c r="G75" s="9"/>
     </row>
     <row r="78" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="21"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="25"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
@@ -6479,14 +6627,14 @@
       <c r="G86" s="9"/>
     </row>
     <row r="89" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="21"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="25"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
@@ -6617,14 +6765,14 @@
       <c r="G97" s="9"/>
     </row>
     <row r="100" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="21"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="25"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
@@ -6755,14 +6903,14 @@
       <c r="G108" s="9"/>
     </row>
     <row r="111" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="21"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="25"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
@@ -6893,14 +7041,14 @@
       <c r="G119" s="9"/>
     </row>
     <row r="122" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="19" t="s">
+      <c r="B122" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="21"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="25"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
@@ -6912,10 +7060,10 @@
       <c r="D123" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E123" s="28" t="s">
+      <c r="E123" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F123" s="29"/>
+      <c r="F123" s="27"/>
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -6928,10 +7076,10 @@
       <c r="D124" s="14">
         <v>7800</v>
       </c>
-      <c r="E124" s="22" t="s">
+      <c r="E124" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F124" s="24"/>
+      <c r="F124" s="29"/>
       <c r="G124" s="9"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -6944,10 +7092,10 @@
       <c r="D125" s="14">
         <v>916</v>
       </c>
-      <c r="E125" s="22" t="s">
+      <c r="E125" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F125" s="24"/>
+      <c r="F125" s="29"/>
       <c r="G125" s="9"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -6960,10 +7108,10 @@
       <c r="D126" s="14">
         <v>94430</v>
       </c>
-      <c r="E126" s="22" t="s">
+      <c r="E126" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F126" s="24"/>
+      <c r="F126" s="29"/>
       <c r="G126" s="9"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -6976,10 +7124,10 @@
       <c r="D127" s="14">
         <v>37540</v>
       </c>
-      <c r="E127" s="22" t="s">
+      <c r="E127" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F127" s="24"/>
+      <c r="F127" s="29"/>
       <c r="G127" s="15"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
@@ -6992,10 +7140,10 @@
       <c r="D128" s="14">
         <v>53888</v>
       </c>
-      <c r="E128" s="22" t="s">
+      <c r="E128" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F128" s="24"/>
+      <c r="F128" s="29"/>
       <c r="G128" s="9"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -7008,10 +7156,10 @@
       <c r="D129" s="14">
         <v>110168</v>
       </c>
-      <c r="E129" s="22" t="s">
+      <c r="E129" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F129" s="24"/>
+      <c r="F129" s="29"/>
       <c r="G129" s="9"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -7024,21 +7172,21 @@
       <c r="D130" s="14">
         <v>135955</v>
       </c>
-      <c r="E130" s="22" t="s">
+      <c r="E130" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F130" s="24"/>
+      <c r="F130" s="29"/>
       <c r="G130" s="9"/>
     </row>
     <row r="133" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="19" t="s">
+      <c r="B133" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="21"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="25"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
@@ -7169,14 +7317,14 @@
       <c r="G141" s="9"/>
     </row>
     <row r="144" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="19" t="s">
+      <c r="B144" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C144" s="20"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="20"/>
-      <c r="G144" s="21"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="25"/>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
@@ -7339,114 +7487,138 @@
       </c>
     </row>
     <row r="155" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C155" s="20"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="21"/>
+      <c r="B155" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C155" s="24"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="25"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="4" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D156" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E156" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E156" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
+      <c r="F156" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="7">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="14">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E157" s="14">
-        <v>8692</v>
-      </c>
-      <c r="F157" s="11"/>
-      <c r="G157" s="9"/>
+        <v>8471</v>
+      </c>
+      <c r="F157" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="7">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D158" s="14">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E158" s="14">
-        <v>6943</v>
-      </c>
-      <c r="F158" s="11"/>
-      <c r="G158" s="9"/>
+        <v>4194</v>
+      </c>
+      <c r="F158" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="7">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D159" s="14">
-        <v>79</v>
-      </c>
-      <c r="E159" s="14">
-        <v>3950</v>
-      </c>
-      <c r="F159" s="11"/>
-      <c r="G159" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="E159" s="34">
+        <v>6943</v>
+      </c>
+      <c r="F159" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="7">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D160" s="14">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E160" s="14">
-        <v>3635</v>
-      </c>
-      <c r="F160" s="11"/>
-      <c r="G160" s="17"/>
+        <v>4125</v>
+      </c>
+      <c r="F160" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G160" s="17" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="7">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D161" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E161" s="14">
-        <v>10464</v>
-      </c>
-      <c r="F161" s="11"/>
-      <c r="G161" s="17"/>
+        <v>10887</v>
+      </c>
+      <c r="F161" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G161" s="17" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="7">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>8</v>
@@ -7455,36 +7627,44 @@
         <v>60</v>
       </c>
       <c r="E162" s="14">
-        <v>3190</v>
-      </c>
-      <c r="F162" s="11"/>
-      <c r="G162" s="17"/>
+        <v>3207</v>
+      </c>
+      <c r="F162" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G162" s="17" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="7">
-        <v>209</v>
+        <v>7</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D163" s="14">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E163" s="14">
-        <v>3190</v>
-      </c>
-      <c r="F163" s="11"/>
-      <c r="G163" s="17"/>
+        <v>144</v>
+      </c>
+      <c r="F163" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G163" s="17" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="166" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C166" s="20"/>
-      <c r="D166" s="20"/>
-      <c r="E166" s="20"/>
-      <c r="F166" s="20"/>
-      <c r="G166" s="21"/>
+      <c r="B166" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C166" s="24"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="25"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="4" t="s">
@@ -7494,16 +7674,16 @@
         <v>3</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E167" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F167" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F167" s="4" t="s">
+      <c r="G167" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.25">
@@ -7516,14 +7696,14 @@
       <c r="D168" s="14">
         <v>320000</v>
       </c>
-      <c r="E168" s="30" t="s">
+      <c r="E168" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F168" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="F168" s="31" t="s">
+      <c r="G168" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="G168" s="32" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.25">
@@ -7536,14 +7716,14 @@
       <c r="D169" s="14">
         <v>4470000</v>
       </c>
-      <c r="E169" s="30" t="s">
+      <c r="E169" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F169" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F169" s="31" t="s">
+      <c r="G169" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="G169" s="32" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.25">
@@ -7556,14 +7736,14 @@
       <c r="D170" s="14">
         <v>4880000</v>
       </c>
-      <c r="E170" s="30" t="s">
+      <c r="E170" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F170" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F170" s="31" t="s">
+      <c r="G170" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="G170" s="32" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.25">
@@ -7576,14 +7756,14 @@
       <c r="D171" s="14">
         <v>5550000</v>
       </c>
-      <c r="E171" s="30" t="s">
+      <c r="E171" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F171" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F171" s="31" t="s">
+      <c r="G171" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="G171" s="33" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.25">
@@ -7596,14 +7776,14 @@
       <c r="D172" s="14">
         <v>8390000</v>
       </c>
-      <c r="E172" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="F172" s="31" t="s">
+      <c r="E172" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F172" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G172" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="G172" s="33" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.25">
@@ -7616,14 +7796,14 @@
       <c r="D173" s="14">
         <v>7660000</v>
       </c>
-      <c r="E173" s="30" t="s">
+      <c r="E173" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F173" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F173" s="31" t="s">
+      <c r="G173" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="G173" s="33" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.25">
@@ -7636,25 +7816,25 @@
       <c r="D174" s="14">
         <v>16610000</v>
       </c>
-      <c r="E174" s="30" t="s">
+      <c r="E174" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F174" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F174" s="31" t="s">
+      <c r="G174" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="G174" s="33" t="s">
+    </row>
+    <row r="177" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="23" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="177" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C177" s="20"/>
-      <c r="D177" s="20"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="20"/>
-      <c r="G177" s="21"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="25"/>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="4" t="s">
@@ -7664,10 +7844,10 @@
         <v>3</v>
       </c>
       <c r="D178" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E178" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
@@ -7680,10 +7860,10 @@
         <v>4</v>
       </c>
       <c r="D179" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E179" s="17" t="s">
         <v>138</v>
-      </c>
-      <c r="E179" s="17" t="s">
-        <v>139</v>
       </c>
       <c r="F179" s="11"/>
       <c r="G179" s="9"/>
@@ -7696,10 +7876,10 @@
         <v>8</v>
       </c>
       <c r="D180" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E180" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="E180" s="17" t="s">
-        <v>141</v>
       </c>
       <c r="F180" s="11"/>
       <c r="G180" s="9"/>
@@ -7712,10 +7892,10 @@
         <v>7</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E181" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F181" s="11"/>
       <c r="G181" s="9"/>
@@ -7728,10 +7908,10 @@
         <v>10</v>
       </c>
       <c r="D182" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E182" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="E182" s="17" t="s">
-        <v>145</v>
       </c>
       <c r="F182" s="11"/>
       <c r="G182" s="17"/>
@@ -7744,10 +7924,10 @@
         <v>5</v>
       </c>
       <c r="D183" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E183" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="E183" s="17" t="s">
-        <v>147</v>
       </c>
       <c r="F183" s="11"/>
       <c r="G183" s="17"/>
@@ -7760,10 +7940,10 @@
         <v>9</v>
       </c>
       <c r="D184" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E184" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="E184" s="17" t="s">
-        <v>149</v>
       </c>
       <c r="F184" s="11"/>
       <c r="G184" s="17"/>
@@ -7784,26 +7964,141 @@
       <c r="F185" s="11"/>
       <c r="G185" s="17"/>
     </row>
+    <row r="188" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C188" s="24"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="24"/>
+      <c r="F188" s="24"/>
+      <c r="G188" s="25"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B189" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E189" s="33"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B190" s="7">
+        <v>1</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" s="35">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="E190" s="36"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B191" s="7">
+        <v>2</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="35">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="E191" s="36"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B192" s="7">
+        <v>3</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" s="35">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E192" s="36"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="7">
+        <v>6</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="35">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="E193" s="36"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="7">
+        <v>10</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="35">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E194" s="36"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="7">
+        <v>11</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" s="35">
+        <v>0.93</v>
+      </c>
+      <c r="E195" s="36"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" s="7">
+        <v>20</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="35">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="E196" s="36"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B166:G166"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B155:G155"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B144:G144"/>
+  <mergeCells count="42">
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B67:G67"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B23:G23"/>
@@ -7817,258 +8112,316 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B166:G166"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="B144:G144"/>
   </mergeCells>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="70" priority="68" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="82" priority="80" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:G22 E3:G9 E32:G33 E43:G44">
-    <cfRule type="containsText" dxfId="69" priority="67" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="81" priority="79" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="70" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="71" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="78" priority="83" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I50">
-    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G20">
-    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="75" priority="73" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="64" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="72" priority="76" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:G31">
-    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:G42">
-    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47:G53">
-    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",E47)))</formula>
+  <conditionalFormatting sqref="G47:G53">
+    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E47)))</formula>
+    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E47)))</formula>
+    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E47)))</formula>
+    <cfRule type="containsText" dxfId="60" priority="64" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",G47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:G64">
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:G75">
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:G86">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:G97">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:G108">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113:G119">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:E130 G124:G130">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:G141">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146:G152">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E146)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E157:G163">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Critical">
+  <conditionalFormatting sqref="E157:G158 E160:G163 F159:G159">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:G174">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E168)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179:G185">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E179)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E179)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D190:D196 G190:G196">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",D190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",D190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",D190)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F190:F196">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",F190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F190)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F190)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:F53">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E47)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E179)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Low",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webdownload/files/Countries.xlsx
+++ b/webdownload/files/Countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC574BD0-BB4A-4174-817E-BF4F2B1039D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBEA703-4EB0-4184-B4F4-F73ABE1B025A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10485" yWindow="915" windowWidth="21600" windowHeight="11385" xr2:uid="{8135E593-2244-9141-AD95-15B174B66CDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8135E593-2244-9141-AD95-15B174B66CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Tracking Template" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="186">
   <si>
     <t>Rank</t>
   </si>
@@ -520,17 +520,81 @@
   </si>
   <si>
     <t xml:space="preserve">2018 Human Development Index </t>
+  </si>
+  <si>
+    <t>Consumer Prices</t>
+  </si>
+  <si>
+    <t>Rent Prices</t>
+  </si>
+  <si>
+    <t>Restaurant Prices</t>
+  </si>
+  <si>
+    <t>Groceries Prices</t>
+  </si>
+  <si>
+    <t>Purchasing Power</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Reykjavik</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>16.59%</t>
+  </si>
+  <si>
+    <t>45.01%</t>
+  </si>
+  <si>
+    <t>12.40%</t>
+  </si>
+  <si>
+    <t>31.44%</t>
+  </si>
+  <si>
+    <t>9.12%</t>
+  </si>
+  <si>
+    <t>24.98%</t>
+  </si>
+  <si>
+    <t>Delft</t>
+  </si>
+  <si>
+    <t>Cost of Living Comparison To Amsterdam</t>
+  </si>
+  <si>
+    <t>Same Life (€5,000.00)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="[$€-413]\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -553,8 +617,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +663,16 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -635,10 +737,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -692,6 +796,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,44 +820,202 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="10" fontId="6" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="103">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1699,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157B9841-E19E-7940-B487-B36C470A6391}">
-  <dimension ref="B1:BUT196"/>
+  <dimension ref="B1:BUT207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189:E189"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I188" sqref="I188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1710,19 +1987,19 @@
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="10" width="11" customWidth="1"/>
+    <col min="4" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:1918" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -5661,14 +5938,14 @@
     <row r="10" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:1918" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="2:1918" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -5677,11 +5954,11 @@
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5691,11 +5968,11 @@
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="29"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5705,11 +5982,11 @@
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5719,11 +5996,11 @@
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="29"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -5733,11 +6010,11 @@
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="29"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -5747,11 +6024,11 @@
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -5761,11 +6038,11 @@
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="29"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -5775,22 +6052,22 @@
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="29"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="1"/>
     </row>
     <row r="23" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -5889,14 +6166,14 @@
       <c r="G31" s="1"/>
     </row>
     <row r="34" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
@@ -6059,14 +6336,14 @@
       </c>
     </row>
     <row r="45" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
@@ -6181,14 +6458,14 @@
       <c r="G53" s="1"/>
     </row>
     <row r="56" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="25"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="30"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
@@ -6335,14 +6612,14 @@
       <c r="G64" s="9"/>
     </row>
     <row r="67" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="25"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="30"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
@@ -6489,14 +6766,14 @@
       <c r="G75" s="9"/>
     </row>
     <row r="78" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="23" t="s">
+      <c r="B78" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="25"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="30"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
@@ -6627,14 +6904,14 @@
       <c r="G86" s="9"/>
     </row>
     <row r="89" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="25"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="30"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
@@ -6765,14 +7042,14 @@
       <c r="G97" s="9"/>
     </row>
     <row r="100" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="25"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="30"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
@@ -6903,14 +7180,14 @@
       <c r="G108" s="9"/>
     </row>
     <row r="111" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="23" t="s">
+      <c r="B111" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="25"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="30"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
@@ -7041,14 +7318,14 @@
       <c r="G119" s="9"/>
     </row>
     <row r="122" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="23" t="s">
+      <c r="B122" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="25"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="30"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
@@ -7060,10 +7337,10 @@
       <c r="D123" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E123" s="26" t="s">
+      <c r="E123" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F123" s="27"/>
+      <c r="F123" s="36"/>
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -7076,10 +7353,10 @@
       <c r="D124" s="14">
         <v>7800</v>
       </c>
-      <c r="E124" s="28" t="s">
+      <c r="E124" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F124" s="29"/>
+      <c r="F124" s="33"/>
       <c r="G124" s="9"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -7092,10 +7369,10 @@
       <c r="D125" s="14">
         <v>916</v>
       </c>
-      <c r="E125" s="28" t="s">
+      <c r="E125" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="F125" s="29"/>
+      <c r="F125" s="33"/>
       <c r="G125" s="9"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -7108,10 +7385,10 @@
       <c r="D126" s="14">
         <v>94430</v>
       </c>
-      <c r="E126" s="28" t="s">
+      <c r="E126" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="F126" s="29"/>
+      <c r="F126" s="33"/>
       <c r="G126" s="9"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -7124,10 +7401,10 @@
       <c r="D127" s="14">
         <v>37540</v>
       </c>
-      <c r="E127" s="28" t="s">
+      <c r="E127" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F127" s="29"/>
+      <c r="F127" s="33"/>
       <c r="G127" s="15"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
@@ -7140,10 +7417,10 @@
       <c r="D128" s="14">
         <v>53888</v>
       </c>
-      <c r="E128" s="28" t="s">
+      <c r="E128" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F128" s="29"/>
+      <c r="F128" s="33"/>
       <c r="G128" s="9"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -7156,10 +7433,10 @@
       <c r="D129" s="14">
         <v>110168</v>
       </c>
-      <c r="E129" s="28" t="s">
+      <c r="E129" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F129" s="29"/>
+      <c r="F129" s="33"/>
       <c r="G129" s="9"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -7172,21 +7449,21 @@
       <c r="D130" s="14">
         <v>135955</v>
       </c>
-      <c r="E130" s="28" t="s">
+      <c r="E130" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F130" s="29"/>
+      <c r="F130" s="33"/>
       <c r="G130" s="9"/>
     </row>
     <row r="133" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="23" t="s">
+      <c r="B133" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="25"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="30"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
@@ -7317,14 +7594,14 @@
       <c r="G141" s="9"/>
     </row>
     <row r="144" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="23" t="s">
+      <c r="B144" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="25"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="30"/>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
@@ -7487,14 +7764,14 @@
       </c>
     </row>
     <row r="155" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="23" t="s">
+      <c r="B155" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C155" s="24"/>
-      <c r="D155" s="24"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="25"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="30"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="4" t="s">
@@ -7566,7 +7843,7 @@
       <c r="D159" s="14">
         <v>81</v>
       </c>
-      <c r="E159" s="34">
+      <c r="E159" s="23">
         <v>6943</v>
       </c>
       <c r="F159" s="17" t="s">
@@ -7657,14 +7934,14 @@
       </c>
     </row>
     <row r="166" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="23" t="s">
+      <c r="B166" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C166" s="24"/>
-      <c r="D166" s="24"/>
-      <c r="E166" s="24"/>
-      <c r="F166" s="24"/>
-      <c r="G166" s="25"/>
+      <c r="C166" s="29"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="30"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="4" t="s">
@@ -7827,14 +8104,14 @@
       </c>
     </row>
     <row r="177" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="23" t="s">
+      <c r="B177" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C177" s="24"/>
-      <c r="D177" s="24"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="24"/>
-      <c r="G177" s="25"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="29"/>
+      <c r="G177" s="30"/>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="4" t="s">
@@ -7965,14 +8242,14 @@
       <c r="G185" s="17"/>
     </row>
     <row r="188" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="23" t="s">
+      <c r="B188" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C188" s="24"/>
-      <c r="D188" s="24"/>
-      <c r="E188" s="24"/>
-      <c r="F188" s="24"/>
-      <c r="G188" s="25"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="29"/>
+      <c r="F188" s="29"/>
+      <c r="G188" s="30"/>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="4" t="s">
@@ -7981,10 +8258,10 @@
       <c r="C189" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D189" s="31" t="s">
+      <c r="D189" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="E189" s="33"/>
+      <c r="E189" s="25"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
     </row>
@@ -7995,10 +8272,10 @@
       <c r="C190" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D190" s="35">
+      <c r="D190" s="26">
         <v>0.95399999999999996</v>
       </c>
-      <c r="E190" s="36"/>
+      <c r="E190" s="27"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
@@ -8009,10 +8286,10 @@
       <c r="C191" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D191" s="35">
+      <c r="D191" s="26">
         <v>0.94599999999999995</v>
       </c>
-      <c r="E191" s="36"/>
+      <c r="E191" s="27"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
@@ -8023,82 +8300,300 @@
       <c r="C192" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D192" s="35">
+      <c r="D192" s="26">
         <v>0.94199999999999995</v>
       </c>
-      <c r="E192" s="36"/>
+      <c r="E192" s="27"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" s="7">
         <v>6</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D193" s="35">
+      <c r="D193" s="26">
         <v>0.93799999999999994</v>
       </c>
-      <c r="E193" s="36"/>
+      <c r="E193" s="27"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" s="7">
         <v>10</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D194" s="35">
+      <c r="D194" s="26">
         <v>0.93300000000000005</v>
       </c>
-      <c r="E194" s="36"/>
+      <c r="E194" s="27"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" s="7">
         <v>11</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D195" s="35">
+      <c r="D195" s="26">
         <v>0.93</v>
       </c>
-      <c r="E195" s="36"/>
+      <c r="E195" s="27"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="7">
         <v>20</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D196" s="35">
+      <c r="D196" s="26">
         <v>0.91400000000000003</v>
       </c>
-      <c r="E196" s="36"/>
+      <c r="E196" s="27"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
+    <row r="199" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C199" s="29"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="29"/>
+      <c r="F199" s="29"/>
+      <c r="G199" s="29"/>
+      <c r="H199" s="29"/>
+      <c r="I199" s="30"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="7">
+        <v>1</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D201" s="37">
+        <v>3617.1</v>
+      </c>
+      <c r="E201" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F201" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="G201" s="39">
+        <v>0.2792</v>
+      </c>
+      <c r="H201" s="39">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="I201" s="39">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="7">
+        <v>2</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D202" s="37">
+        <v>3637.96</v>
+      </c>
+      <c r="E202" s="39">
+        <v>0.1411</v>
+      </c>
+      <c r="F202" s="39">
+        <v>0.47839999999999999</v>
+      </c>
+      <c r="G202" s="39">
+        <v>0.2082</v>
+      </c>
+      <c r="H202" s="39">
+        <v>0.1008</v>
+      </c>
+      <c r="I202" s="39">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203" s="7">
+        <v>3</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D203" s="37">
+        <v>4766.54</v>
+      </c>
+      <c r="E203" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F203" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="G203" s="41">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="H203" s="41">
+        <v>0.39710000000000001</v>
+      </c>
+      <c r="I203" s="39">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B204" s="7">
+        <v>4</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D204" s="37">
+        <v>4792.13</v>
+      </c>
+      <c r="E204" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="F204" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G204" s="41">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="H204" s="41">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="I204" s="41">
+        <v>9.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="7">
+        <v>5</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D205" s="37">
+        <v>4960.71</v>
+      </c>
+      <c r="E205" s="41">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="F205" s="39">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="G205" s="41">
+        <v>0.188</v>
+      </c>
+      <c r="H205" s="41">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="I205" s="39">
+        <v>8.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B206" s="7">
+        <v>6</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D206" s="37">
+        <v>5176.6499999999996</v>
+      </c>
+      <c r="E206" s="39">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="F206" s="41">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="G206" s="39">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="H206" s="41">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="I206" s="41">
+        <v>0.17369999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="7">
+        <v>7</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D207" s="37">
+        <v>7008.58</v>
+      </c>
+      <c r="E207" s="41">
+        <v>0.57740000000000002</v>
+      </c>
+      <c r="F207" s="41">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="G207" s="41">
+        <v>0.3659</v>
+      </c>
+      <c r="H207" s="41">
+        <v>1.0968</v>
+      </c>
+      <c r="I207" s="39">
+        <v>0.45219999999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B67:G67"/>
+  <mergeCells count="43">
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="B199:I199"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B23:G23"/>
@@ -8112,6 +8607,12 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="B188:G188"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B67:G67"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B89:G89"/>
     <mergeCell ref="B100:G100"/>
@@ -8122,306 +8623,359 @@
     <mergeCell ref="B155:G155"/>
     <mergeCell ref="E123:F123"/>
     <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="D193:E193"/>
   </mergeCells>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="82" priority="80" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="102" priority="96" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:G22 E3:G9 E32:G33 E43:G44">
-    <cfRule type="containsText" dxfId="81" priority="79" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="101" priority="95" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="100" priority="97" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="99" priority="98" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="83" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="98" priority="99" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I50">
-    <cfRule type="containsText" dxfId="77" priority="77" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="97" priority="93" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="78" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="96" priority="94" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G20">
-    <cfRule type="containsText" dxfId="75" priority="73" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="95" priority="89" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="94" priority="90" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="93" priority="91" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="76" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="92" priority="92" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:G31">
-    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="91" priority="85" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="90" priority="86" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="89" priority="87" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:G42">
-    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="87" priority="81" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="86" priority="82" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="85" priority="83" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="84" priority="84" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:G53">
-    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="83" priority="77" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="82" priority="78" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="81" priority="79" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="64" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="80" priority="80" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",G47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:G64">
-    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="79" priority="73" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="78" priority="74" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="77" priority="75" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:G75">
-    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="75" priority="69" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="74" priority="70" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="73" priority="71" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:G86">
-    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="71" priority="65" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="70" priority="66" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="69" priority="67" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="68" priority="68" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:G97">
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="67" priority="61" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="66" priority="62" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:G108">
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="63" priority="57" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113:G119">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="59" priority="53" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="58" priority="54" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:E130 G124:G130">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="55" priority="49" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="54" priority="50" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:G141">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146:G152">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="47" priority="41" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="46" priority="42" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157:G158 E160:G163 F159:G159">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:G174">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E168)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179:G185">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D190:D196 G190:G196">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",D190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F190:F196">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",F190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F53">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E203:G207 F202:G202">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",E202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E202)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H202:I207">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",H202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",H202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",H202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",H202)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F201:G201">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",F201)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F201)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F201)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F201)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H201:I201">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",E47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Critical",H201)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("High",H201)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Medium",H201)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Low",H201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webdownload/files/Countries.xlsx
+++ b/webdownload/files/Countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBEA703-4EB0-4184-B4F4-F73ABE1B025A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9D92B1-0442-4F4A-AF39-14A7127EC1EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8135E593-2244-9141-AD95-15B174B66CDB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="195">
   <si>
     <t>Rank</t>
   </si>
@@ -583,6 +583,33 @@
   </si>
   <si>
     <t>Same Life (€5,000.00)</t>
+  </si>
+  <si>
+    <t>Health Care Index by Country 2020 Mid-Year</t>
+  </si>
+  <si>
+    <t>Rank /93</t>
+  </si>
+  <si>
+    <t>Healt Care Index</t>
+  </si>
+  <si>
+    <t>Health Care (Patient) Experience Index</t>
+  </si>
+  <si>
+    <t>80.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Number of Prison Facilities </t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>34 (consisting of 58 prisons)</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
 </sst>
 </file>
@@ -592,7 +619,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="[$€-413]\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$€-413]\ #,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -742,7 +769,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -799,46 +826,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -854,13 +842,120 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="111">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1976,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157B9841-E19E-7940-B487-B36C470A6391}">
-  <dimension ref="B1:BUT207"/>
+  <dimension ref="B1:BUT218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I188" sqref="I188"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1992,14 +2087,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:1918" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -5938,13 +6033,13 @@
     <row r="10" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:1918" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5954,11 +6049,11 @@
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:1918" x14ac:dyDescent="0.25">
@@ -5968,10 +6063,10 @@
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="32"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="1"/>
     </row>
@@ -5982,10 +6077,10 @@
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="32"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="1"/>
     </row>
@@ -5996,10 +6091,10 @@
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="32"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="33"/>
       <c r="G16" s="1"/>
     </row>
@@ -6010,10 +6105,10 @@
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="32"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="33"/>
       <c r="G17" s="6"/>
     </row>
@@ -6024,10 +6119,10 @@
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="32"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="33"/>
       <c r="G18" s="1"/>
     </row>
@@ -6038,10 +6133,10 @@
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="32"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="1"/>
     </row>
@@ -6052,21 +6147,21 @@
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="32"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="1"/>
     </row>
     <row r="23" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="30"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -6166,13 +6261,13 @@
       <c r="G31" s="1"/>
     </row>
     <row r="34" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -6336,13 +6431,13 @@
       </c>
     </row>
     <row r="45" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
       <c r="G45" s="30"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -6458,14 +6553,14 @@
       <c r="G53" s="1"/>
     </row>
     <row r="56" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="30"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="32"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
@@ -6612,14 +6707,14 @@
       <c r="G64" s="9"/>
     </row>
     <row r="67" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="32"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
@@ -6766,14 +6861,14 @@
       <c r="G75" s="9"/>
     </row>
     <row r="78" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="30"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="32"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
@@ -6904,14 +6999,14 @@
       <c r="G86" s="9"/>
     </row>
     <row r="89" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="30"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="32"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
@@ -7042,14 +7137,14 @@
       <c r="G97" s="9"/>
     </row>
     <row r="100" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="28" t="s">
+      <c r="B100" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="30"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="32"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
@@ -7180,14 +7275,14 @@
       <c r="G108" s="9"/>
     </row>
     <row r="111" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="28" t="s">
+      <c r="B111" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="30"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="32"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
@@ -7318,14 +7413,14 @@
       <c r="G119" s="9"/>
     </row>
     <row r="122" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="28" t="s">
+      <c r="B122" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="30"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="32"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
@@ -7337,10 +7432,10 @@
       <c r="D123" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E123" s="35" t="s">
+      <c r="E123" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F123" s="36"/>
+      <c r="F123" s="40"/>
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -7353,10 +7448,10 @@
       <c r="D124" s="14">
         <v>7800</v>
       </c>
-      <c r="E124" s="31" t="s">
+      <c r="E124" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F124" s="33"/>
+      <c r="F124" s="34"/>
       <c r="G124" s="9"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -7369,10 +7464,10 @@
       <c r="D125" s="14">
         <v>916</v>
       </c>
-      <c r="E125" s="31" t="s">
+      <c r="E125" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F125" s="33"/>
+      <c r="F125" s="34"/>
       <c r="G125" s="9"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
@@ -7385,10 +7480,10 @@
       <c r="D126" s="14">
         <v>94430</v>
       </c>
-      <c r="E126" s="31" t="s">
+      <c r="E126" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F126" s="33"/>
+      <c r="F126" s="34"/>
       <c r="G126" s="9"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -7401,10 +7496,10 @@
       <c r="D127" s="14">
         <v>37540</v>
       </c>
-      <c r="E127" s="31" t="s">
+      <c r="E127" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F127" s="33"/>
+      <c r="F127" s="34"/>
       <c r="G127" s="15"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
@@ -7417,10 +7512,10 @@
       <c r="D128" s="14">
         <v>53888</v>
       </c>
-      <c r="E128" s="31" t="s">
+      <c r="E128" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F128" s="33"/>
+      <c r="F128" s="34"/>
       <c r="G128" s="9"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -7433,10 +7528,10 @@
       <c r="D129" s="14">
         <v>110168</v>
       </c>
-      <c r="E129" s="31" t="s">
+      <c r="E129" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F129" s="33"/>
+      <c r="F129" s="34"/>
       <c r="G129" s="9"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -7449,21 +7544,21 @@
       <c r="D130" s="14">
         <v>135955</v>
       </c>
-      <c r="E130" s="31" t="s">
+      <c r="E130" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F130" s="33"/>
+      <c r="F130" s="34"/>
       <c r="G130" s="9"/>
     </row>
     <row r="133" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="28" t="s">
+      <c r="B133" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="30"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="32"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
@@ -7594,16 +7689,16 @@
       <c r="G141" s="9"/>
     </row>
     <row r="144" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="28" t="s">
+      <c r="B144" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C144" s="29"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="29"/>
-      <c r="G144" s="30"/>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C144" s="31"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="31"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="32"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
         <v>0</v>
       </c>
@@ -7623,7 +7718,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="7">
         <v>1</v>
       </c>
@@ -7643,7 +7738,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="7">
         <v>2</v>
       </c>
@@ -7663,7 +7758,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="7">
         <v>3</v>
       </c>
@@ -7683,7 +7778,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="7">
         <v>4</v>
       </c>
@@ -7703,7 +7798,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="7">
         <v>5</v>
       </c>
@@ -7723,7 +7818,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" s="7">
         <v>6</v>
       </c>
@@ -7743,7 +7838,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" s="7">
         <v>7</v>
       </c>
@@ -7763,17 +7858,19 @@
         <v>104</v>
       </c>
     </row>
-    <row r="155" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="28" t="s">
+    <row r="155" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="30"/>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="31"/>
+      <c r="H155" s="31"/>
+      <c r="I155" s="32"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="4" t="s">
         <v>0</v>
       </c>
@@ -7792,8 +7889,12 @@
       <c r="G156" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H156" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="I156" s="40"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="7">
         <v>1</v>
       </c>
@@ -7812,8 +7913,12 @@
       <c r="G157" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H157" s="43">
+        <v>28</v>
+      </c>
+      <c r="I157" s="44"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" s="7">
         <v>2</v>
       </c>
@@ -7832,8 +7937,12 @@
       <c r="G158" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="43">
+        <v>13</v>
+      </c>
+      <c r="I158" s="44"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="7">
         <v>3</v>
       </c>
@@ -7852,8 +7961,12 @@
       <c r="G159" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H159" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I159" s="44"/>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" s="7">
         <v>4</v>
       </c>
@@ -7872,8 +7985,12 @@
       <c r="G160" s="17" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H160" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="I160" s="34"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="7">
         <v>5</v>
       </c>
@@ -7892,8 +8009,12 @@
       <c r="G161" s="17" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H161" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="I161" s="34"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="7">
         <v>6</v>
       </c>
@@ -7912,8 +8033,12 @@
       <c r="G162" s="17" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="I162" s="34"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="7">
         <v>7</v>
       </c>
@@ -7932,18 +8057,22 @@
       <c r="G163" s="17" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="166" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="28" t="s">
+      <c r="H163" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I163" s="34"/>
+    </row>
+    <row r="166" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C166" s="29"/>
-      <c r="D166" s="29"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="30"/>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="32"/>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="4" t="s">
         <v>0</v>
       </c>
@@ -7963,7 +8092,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="7">
         <v>1</v>
       </c>
@@ -7983,7 +8112,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="7">
         <v>2</v>
       </c>
@@ -8003,7 +8132,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="7">
         <v>3</v>
       </c>
@@ -8023,7 +8152,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="7">
         <v>4</v>
       </c>
@@ -8043,7 +8172,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="7">
         <v>5</v>
       </c>
@@ -8063,7 +8192,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="7">
         <v>6</v>
       </c>
@@ -8083,7 +8212,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="7">
         <v>7</v>
       </c>
@@ -8104,14 +8233,14 @@
       </c>
     </row>
     <row r="177" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="28" t="s">
+      <c r="B177" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C177" s="29"/>
-      <c r="D177" s="29"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="29"/>
-      <c r="G177" s="30"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="31"/>
+      <c r="G177" s="32"/>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="4" t="s">
@@ -8242,14 +8371,14 @@
       <c r="G185" s="17"/>
     </row>
     <row r="188" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="28" t="s">
+      <c r="B188" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C188" s="29"/>
-      <c r="D188" s="29"/>
-      <c r="E188" s="29"/>
-      <c r="F188" s="29"/>
-      <c r="G188" s="30"/>
+      <c r="C188" s="31"/>
+      <c r="D188" s="31"/>
+      <c r="E188" s="31"/>
+      <c r="F188" s="31"/>
+      <c r="G188" s="32"/>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="4" t="s">
@@ -8258,10 +8387,10 @@
       <c r="C189" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D189" s="24" t="s">
+      <c r="D189" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="E189" s="25"/>
+      <c r="E189" s="36"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
     </row>
@@ -8272,10 +8401,10 @@
       <c r="C190" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D190" s="26">
+      <c r="D190" s="37">
         <v>0.95399999999999996</v>
       </c>
-      <c r="E190" s="27"/>
+      <c r="E190" s="38"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
@@ -8286,10 +8415,10 @@
       <c r="C191" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D191" s="26">
+      <c r="D191" s="37">
         <v>0.94599999999999995</v>
       </c>
-      <c r="E191" s="27"/>
+      <c r="E191" s="38"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
@@ -8300,10 +8429,10 @@
       <c r="C192" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D192" s="26">
+      <c r="D192" s="37">
         <v>0.94199999999999995</v>
       </c>
-      <c r="E192" s="27"/>
+      <c r="E192" s="38"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
@@ -8314,10 +8443,10 @@
       <c r="C193" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D193" s="26">
+      <c r="D193" s="37">
         <v>0.93799999999999994</v>
       </c>
-      <c r="E193" s="27"/>
+      <c r="E193" s="38"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
     </row>
@@ -8328,10 +8457,10 @@
       <c r="C194" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D194" s="26">
+      <c r="D194" s="37">
         <v>0.93300000000000005</v>
       </c>
-      <c r="E194" s="27"/>
+      <c r="E194" s="38"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
@@ -8342,10 +8471,10 @@
       <c r="C195" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D195" s="26">
+      <c r="D195" s="37">
         <v>0.93</v>
       </c>
-      <c r="E195" s="27"/>
+      <c r="E195" s="38"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
@@ -8356,24 +8485,24 @@
       <c r="C196" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D196" s="26">
+      <c r="D196" s="37">
         <v>0.91400000000000003</v>
       </c>
-      <c r="E196" s="27"/>
+      <c r="E196" s="38"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
     <row r="199" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="28" t="s">
+      <c r="B199" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C199" s="29"/>
-      <c r="D199" s="29"/>
-      <c r="E199" s="29"/>
-      <c r="F199" s="29"/>
-      <c r="G199" s="29"/>
-      <c r="H199" s="29"/>
-      <c r="I199" s="30"/>
+      <c r="C199" s="31"/>
+      <c r="D199" s="31"/>
+      <c r="E199" s="31"/>
+      <c r="F199" s="31"/>
+      <c r="G199" s="31"/>
+      <c r="H199" s="31"/>
+      <c r="I199" s="32"/>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" s="4" t="s">
@@ -8408,22 +8537,22 @@
       <c r="C201" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D201" s="37">
+      <c r="D201" s="24">
         <v>3617.1</v>
       </c>
-      <c r="E201" s="42" t="s">
+      <c r="E201" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="F201" s="39" t="s">
+      <c r="F201" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="G201" s="39">
+      <c r="G201" s="26">
         <v>0.2792</v>
       </c>
-      <c r="H201" s="39">
+      <c r="H201" s="26">
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="I201" s="39">
+      <c r="I201" s="26">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -8434,22 +8563,22 @@
       <c r="C202" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D202" s="37">
+      <c r="D202" s="24">
         <v>3637.96</v>
       </c>
-      <c r="E202" s="39">
+      <c r="E202" s="26">
         <v>0.1411</v>
       </c>
-      <c r="F202" s="39">
+      <c r="F202" s="26">
         <v>0.47839999999999999</v>
       </c>
-      <c r="G202" s="39">
+      <c r="G202" s="26">
         <v>0.2082</v>
       </c>
-      <c r="H202" s="39">
+      <c r="H202" s="26">
         <v>0.1008</v>
       </c>
-      <c r="I202" s="39">
+      <c r="I202" s="26">
         <v>0.16700000000000001</v>
       </c>
     </row>
@@ -8460,22 +8589,22 @@
       <c r="C203" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D203" s="37">
+      <c r="D203" s="24">
         <v>4766.54</v>
       </c>
-      <c r="E203" s="40" t="s">
+      <c r="E203" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="F203" s="38" t="s">
+      <c r="F203" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="G203" s="41">
+      <c r="G203" s="28">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="H203" s="41">
+      <c r="H203" s="28">
         <v>0.39710000000000001</v>
       </c>
-      <c r="I203" s="39">
+      <c r="I203" s="26">
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
@@ -8486,22 +8615,22 @@
       <c r="C204" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D204" s="37">
+      <c r="D204" s="24">
         <v>4792.13</v>
       </c>
-      <c r="E204" s="40" t="s">
+      <c r="E204" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="F204" s="38" t="s">
+      <c r="F204" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="G204" s="41">
+      <c r="G204" s="28">
         <v>0.15049999999999999</v>
       </c>
-      <c r="H204" s="41">
+      <c r="H204" s="28">
         <v>0.29670000000000002</v>
       </c>
-      <c r="I204" s="41">
+      <c r="I204" s="28">
         <v>9.5899999999999999E-2</v>
       </c>
     </row>
@@ -8512,22 +8641,22 @@
       <c r="C205" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D205" s="37">
+      <c r="D205" s="24">
         <v>4960.71</v>
       </c>
-      <c r="E205" s="41">
+      <c r="E205" s="28">
         <v>0.10050000000000001</v>
       </c>
-      <c r="F205" s="39">
+      <c r="F205" s="26">
         <v>0.17780000000000001</v>
       </c>
-      <c r="G205" s="41">
+      <c r="G205" s="28">
         <v>0.188</v>
       </c>
-      <c r="H205" s="41">
+      <c r="H205" s="28">
         <v>0.11459999999999999</v>
       </c>
-      <c r="I205" s="39">
+      <c r="I205" s="26">
         <v>8.9599999999999999E-2</v>
       </c>
     </row>
@@ -8538,22 +8667,22 @@
       <c r="C206" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D206" s="37">
+      <c r="D206" s="24">
         <v>5176.6499999999996</v>
       </c>
-      <c r="E206" s="39">
+      <c r="E206" s="26">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F206" s="41">
+      <c r="F206" s="28">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="G206" s="39">
+      <c r="G206" s="26">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="H206" s="41">
+      <c r="H206" s="28">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="I206" s="41">
+      <c r="I206" s="28">
         <v>0.17369999999999999</v>
       </c>
     </row>
@@ -8564,29 +8693,211 @@
       <c r="C207" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D207" s="37">
+      <c r="D207" s="24">
         <v>7008.58</v>
       </c>
-      <c r="E207" s="41">
+      <c r="E207" s="28">
         <v>0.57740000000000002</v>
       </c>
-      <c r="F207" s="41">
+      <c r="F207" s="28">
         <v>0.12620000000000001</v>
       </c>
-      <c r="G207" s="41">
+      <c r="G207" s="28">
         <v>0.3659</v>
       </c>
-      <c r="H207" s="41">
+      <c r="H207" s="28">
         <v>1.0968</v>
       </c>
-      <c r="I207" s="39">
+      <c r="I207" s="26">
         <v>0.45219999999999999</v>
       </c>
     </row>
+    <row r="210" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C210" s="31"/>
+      <c r="D210" s="31"/>
+      <c r="E210" s="31"/>
+      <c r="F210" s="31"/>
+      <c r="G210" s="32"/>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B211" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E211" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="F211" s="40"/>
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B212" s="7">
+        <v>5</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E212" s="41">
+        <v>147.69</v>
+      </c>
+      <c r="F212" s="42"/>
+      <c r="G212" s="9"/>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B213" s="7">
+        <v>7</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="8">
+        <v>78.56</v>
+      </c>
+      <c r="E213" s="41">
+        <v>143.83000000000001</v>
+      </c>
+      <c r="F213" s="42"/>
+      <c r="G213" s="9"/>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B214" s="7">
+        <v>11</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" s="8">
+        <v>75.680000000000007</v>
+      </c>
+      <c r="E214" s="41">
+        <v>138.01</v>
+      </c>
+      <c r="F214" s="42"/>
+      <c r="G214" s="9"/>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B215" s="7">
+        <v>15</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="8">
+        <v>74.510000000000005</v>
+      </c>
+      <c r="E215" s="41">
+        <v>136.07</v>
+      </c>
+      <c r="F215" s="42"/>
+      <c r="G215" s="17"/>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B216" s="7">
+        <v>19</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" s="8">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E216" s="41">
+        <v>137.38999999999999</v>
+      </c>
+      <c r="F216" s="42"/>
+      <c r="G216" s="17"/>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B217" s="7">
+        <v>44</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="8">
+        <v>65.61</v>
+      </c>
+      <c r="E217" s="41">
+        <v>119.8</v>
+      </c>
+      <c r="F217" s="42"/>
+      <c r="G217" s="17"/>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B218" s="7">
+        <v>80</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" s="8">
+        <v>52.27</v>
+      </c>
+      <c r="E218" s="41">
+        <v>95.11</v>
+      </c>
+      <c r="F218" s="42"/>
+      <c r="G218" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="60">
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="B155:I155"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="B210:G210"/>
+    <mergeCell ref="B199:I199"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B166:G166"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="B144:G144"/>
-    <mergeCell ref="B199:I199"/>
     <mergeCell ref="E125:F125"/>
     <mergeCell ref="B133:G133"/>
     <mergeCell ref="E126:F126"/>
@@ -8594,388 +8905,389 @@
     <mergeCell ref="E128:F128"/>
     <mergeCell ref="E129:F129"/>
     <mergeCell ref="E130:F130"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
     <mergeCell ref="D194:E194"/>
     <mergeCell ref="D195:E195"/>
     <mergeCell ref="D196:E196"/>
     <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B166:G166"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B155:G155"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="E124:F124"/>
     <mergeCell ref="D189:E189"/>
     <mergeCell ref="D190:E190"/>
     <mergeCell ref="D191:E191"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="D193:E193"/>
   </mergeCells>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="102" priority="96" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="110" priority="108" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:G22 E3:G9 E32:G33 E43:G44">
-    <cfRule type="containsText" dxfId="101" priority="95" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="109" priority="107" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="97" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="108" priority="109" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="98" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="107" priority="110" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="99" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="106" priority="111" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I50">
-    <cfRule type="containsText" dxfId="97" priority="93" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="105" priority="105" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="94" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="104" priority="106" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G20">
-    <cfRule type="containsText" dxfId="95" priority="89" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="103" priority="101" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="90" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="91" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="101" priority="103" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="92" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="100" priority="104" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:G31">
-    <cfRule type="containsText" dxfId="91" priority="85" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="99" priority="97" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="86" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="98" priority="98" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="87" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="97" priority="99" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="96" priority="100" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:G42">
-    <cfRule type="containsText" dxfId="87" priority="81" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="95" priority="93" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="82" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="94" priority="94" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="83" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="84" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="92" priority="96" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:G53">
-    <cfRule type="containsText" dxfId="83" priority="77" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="91" priority="89" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="78" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="90" priority="90" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="79" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="89" priority="91" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="80" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="88" priority="92" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",G47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:G64">
-    <cfRule type="containsText" dxfId="79" priority="73" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="87" priority="85" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="74" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="86" priority="86" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="75" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="85" priority="87" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="76" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="84" priority="88" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:G75">
-    <cfRule type="containsText" dxfId="75" priority="69" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="83" priority="81" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="70" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="71" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="72" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:G86">
-    <cfRule type="containsText" dxfId="71" priority="65" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="79" priority="77" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="66" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="67" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="68" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="76" priority="80" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:G97">
-    <cfRule type="containsText" dxfId="67" priority="61" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="75" priority="73" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="62" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="72" priority="76" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:G108">
-    <cfRule type="containsText" dxfId="63" priority="57" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="58" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113:G119">
-    <cfRule type="containsText" dxfId="59" priority="53" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="54" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:E130 G124:G130">
-    <cfRule type="containsText" dxfId="55" priority="49" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="50" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="60" priority="64" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:G141">
-    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146:G152">
-    <cfRule type="containsText" dxfId="47" priority="41" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="42" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157:G158 E160:G163 F159:G159">
-    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:G174">
-    <cfRule type="containsText" dxfId="39" priority="33" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="45" priority="47" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="44" priority="48" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E168)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179:G185">
-    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D190:D196 G190:G196">
-    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",D190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F190:F196">
-    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",F190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:F53">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E203:G207 F202:G202">
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H202:I207">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",H202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",H202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",H202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F201:G201">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",F201)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F201)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F201)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H201:I201">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H201)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",H201)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",H201)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",H201)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E212:E218 G212:G218">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",E212)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E212)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E212)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E212)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H157:H163">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",H157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",H157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",H157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",H157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webdownload/files/Countries.xlsx
+++ b/webdownload/files/Countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB409C0-3F12-4BCC-A592-CE7E044EF25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7E2E21-C1C1-41CF-91DD-C9884DDF691F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8135E593-2244-9141-AD95-15B174B66CDB}"/>
   </bookViews>
@@ -838,20 +838,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -859,19 +847,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -880,23 +871,32 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -904,7 +904,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="95">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -964,161 +964,6 @@
       <font>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9887"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9887"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9887"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9887"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9887"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2113,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157B9841-E19E-7940-B487-B36C470A6391}">
   <dimension ref="B1:BUT218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P226" sqref="P226"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2127,12 +1972,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:1918" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
@@ -4057,7 +3902,7 @@
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -5982,7 +5827,6 @@
       <c r="D3" s="7">
         <v>1.2</v>
       </c>
-      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
@@ -5994,7 +5838,6 @@
       <c r="D4" s="7">
         <v>0.9</v>
       </c>
-      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
@@ -6006,7 +5849,6 @@
       <c r="D5" s="7">
         <v>0.9</v>
       </c>
-      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
@@ -6018,7 +5860,6 @@
       <c r="D6" s="7">
         <v>0.8</v>
       </c>
-      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
@@ -6030,7 +5871,6 @@
       <c r="D7" s="7">
         <v>0.7</v>
       </c>
-      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
@@ -6042,7 +5882,6 @@
       <c r="D8" s="7">
         <v>0.5</v>
       </c>
-      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
@@ -6054,18 +5893,17 @@
       <c r="D9" s="7">
         <v>0.5</v>
       </c>
-      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:1918" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:1918" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="2:1918" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -6074,11 +5912,11 @@
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="43"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:1918" x14ac:dyDescent="0.25">
@@ -6088,11 +5926,11 @@
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:1918" x14ac:dyDescent="0.25">
@@ -6102,11 +5940,11 @@
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:1918" x14ac:dyDescent="0.25">
@@ -6116,11 +5954,11 @@
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="44"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -6130,11 +5968,11 @@
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="44"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -6144,11 +5982,11 @@
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -6158,11 +5996,11 @@
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="44"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -6172,18 +6010,18 @@
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="44"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="2"/>
     </row>
     <row r="23" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="46"/>
+      <c r="C23" s="34"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -6282,14 +6120,14 @@
       <c r="G31" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="47"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="43"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
@@ -6452,11 +6290,11 @@
       </c>
     </row>
     <row r="45" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="34"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
@@ -6547,13 +6385,13 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
@@ -6692,13 +6530,13 @@
       </c>
     </row>
     <row r="67" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="34"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="30"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
@@ -6837,12 +6675,12 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="34"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="30"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
@@ -6957,12 +6795,12 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="34"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="30"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
@@ -7077,12 +6915,12 @@
       </c>
     </row>
     <row r="100" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="34"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="30"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
@@ -7197,12 +7035,12 @@
       </c>
     </row>
     <row r="111" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="34"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="30"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
@@ -7317,13 +7155,13 @@
       </c>
     </row>
     <row r="122" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="34"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="30"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
@@ -7335,10 +7173,10 @@
       <c r="D123" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E123" s="35" t="s">
+      <c r="E123" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="F123" s="36"/>
+      <c r="F123" s="40"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="6">
@@ -7350,10 +7188,10 @@
       <c r="D124" s="13">
         <v>7800</v>
       </c>
-      <c r="E124" s="28" t="s">
+      <c r="E124" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F124" s="39"/>
+      <c r="F124" s="32"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="6">
@@ -7365,10 +7203,10 @@
       <c r="D125" s="13">
         <v>916</v>
       </c>
-      <c r="E125" s="28" t="s">
+      <c r="E125" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F125" s="39"/>
+      <c r="F125" s="32"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="6">
@@ -7380,10 +7218,10 @@
       <c r="D126" s="13">
         <v>94430</v>
       </c>
-      <c r="E126" s="28" t="s">
+      <c r="E126" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="F126" s="39"/>
+      <c r="F126" s="32"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="6">
@@ -7395,10 +7233,10 @@
       <c r="D127" s="13">
         <v>37540</v>
       </c>
-      <c r="E127" s="28" t="s">
+      <c r="E127" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="F127" s="39"/>
+      <c r="F127" s="32"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="6">
@@ -7410,10 +7248,10 @@
       <c r="D128" s="13">
         <v>53888</v>
       </c>
-      <c r="E128" s="28" t="s">
+      <c r="E128" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F128" s="39"/>
+      <c r="F128" s="32"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="6">
@@ -7425,10 +7263,10 @@
       <c r="D129" s="13">
         <v>110168</v>
       </c>
-      <c r="E129" s="28" t="s">
+      <c r="E129" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F129" s="39"/>
+      <c r="F129" s="32"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="6">
@@ -7440,18 +7278,18 @@
       <c r="D130" s="13">
         <v>135955</v>
       </c>
-      <c r="E130" s="28" t="s">
+      <c r="E130" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F130" s="39"/>
+      <c r="F130" s="32"/>
     </row>
     <row r="133" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="34"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="30"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
@@ -7566,14 +7404,14 @@
       </c>
     </row>
     <row r="144" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="30" t="s">
+      <c r="B144" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C144" s="33"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="34"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="30"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
@@ -7736,16 +7574,16 @@
       </c>
     </row>
     <row r="155" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C155" s="33"/>
-      <c r="D155" s="33"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
-      <c r="I155" s="34"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="30"/>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="4" t="s">
@@ -7766,10 +7604,10 @@
       <c r="G156" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H156" s="35" t="s">
+      <c r="H156" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="I156" s="36"/>
+      <c r="I156" s="40"/>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="6">
@@ -7790,10 +7628,10 @@
       <c r="G157" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="H157" s="37">
+      <c r="H157" s="44">
         <v>28</v>
       </c>
-      <c r="I157" s="38"/>
+      <c r="I157" s="45"/>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" s="6">
@@ -7814,10 +7652,10 @@
       <c r="G158" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="H158" s="37">
+      <c r="H158" s="44">
         <v>13</v>
       </c>
-      <c r="I158" s="38"/>
+      <c r="I158" s="45"/>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="6">
@@ -7838,10 +7676,10 @@
       <c r="G159" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H159" s="37" t="s">
+      <c r="H159" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="I159" s="38"/>
+      <c r="I159" s="45"/>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" s="6">
@@ -7862,10 +7700,10 @@
       <c r="G160" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H160" s="28" t="s">
+      <c r="H160" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="I160" s="39"/>
+      <c r="I160" s="32"/>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="6">
@@ -7886,10 +7724,10 @@
       <c r="G161" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="H161" s="28" t="s">
+      <c r="H161" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="I161" s="39"/>
+      <c r="I161" s="32"/>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="6">
@@ -7910,10 +7748,10 @@
       <c r="G162" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="H162" s="28" t="s">
+      <c r="H162" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="I162" s="39"/>
+      <c r="I162" s="32"/>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="6">
@@ -7934,20 +7772,20 @@
       <c r="G163" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H163" s="28" t="s">
+      <c r="H163" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I163" s="39"/>
+      <c r="I163" s="32"/>
     </row>
     <row r="166" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="30" t="s">
+      <c r="B166" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C166" s="33"/>
-      <c r="D166" s="33"/>
-      <c r="E166" s="33"/>
-      <c r="F166" s="33"/>
-      <c r="G166" s="34"/>
+      <c r="C166" s="29"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="30"/>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="4" t="s">
@@ -8110,12 +7948,12 @@
       </c>
     </row>
     <row r="177" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="30" t="s">
+      <c r="B177" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C177" s="33"/>
-      <c r="D177" s="33"/>
-      <c r="E177" s="34"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="30"/>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="4" t="s">
@@ -8230,12 +8068,12 @@
       </c>
     </row>
     <row r="188" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="30" t="s">
+      <c r="B188" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C188" s="33"/>
-      <c r="D188" s="33"/>
-      <c r="E188" s="34"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="30"/>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="4" t="s">
@@ -8244,7 +8082,7 @@
       <c r="C189" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D189" s="29" t="s">
+      <c r="D189" s="41" t="s">
         <v>161</v>
       </c>
       <c r="E189" s="42"/>
@@ -8256,10 +8094,10 @@
       <c r="C190" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D190" s="40">
+      <c r="D190" s="37">
         <v>0.95399999999999996</v>
       </c>
-      <c r="E190" s="41"/>
+      <c r="E190" s="38"/>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="6">
@@ -8268,10 +8106,10 @@
       <c r="C191" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D191" s="40">
+      <c r="D191" s="37">
         <v>0.94599999999999995</v>
       </c>
-      <c r="E191" s="41"/>
+      <c r="E191" s="38"/>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="6">
@@ -8280,10 +8118,10 @@
       <c r="C192" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D192" s="40">
+      <c r="D192" s="37">
         <v>0.94199999999999995</v>
       </c>
-      <c r="E192" s="41"/>
+      <c r="E192" s="38"/>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" s="6">
@@ -8292,10 +8130,10 @@
       <c r="C193" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D193" s="40">
+      <c r="D193" s="37">
         <v>0.93799999999999994</v>
       </c>
-      <c r="E193" s="41"/>
+      <c r="E193" s="38"/>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" s="6">
@@ -8304,10 +8142,10 @@
       <c r="C194" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D194" s="40">
+      <c r="D194" s="37">
         <v>0.93300000000000005</v>
       </c>
-      <c r="E194" s="41"/>
+      <c r="E194" s="38"/>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" s="6">
@@ -8316,10 +8154,10 @@
       <c r="C195" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D195" s="40">
+      <c r="D195" s="37">
         <v>0.93</v>
       </c>
-      <c r="E195" s="41"/>
+      <c r="E195" s="38"/>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="6">
@@ -8328,22 +8166,22 @@
       <c r="C196" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D196" s="40">
+      <c r="D196" s="37">
         <v>0.91400000000000003</v>
       </c>
-      <c r="E196" s="41"/>
+      <c r="E196" s="38"/>
     </row>
     <row r="199" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="30" t="s">
+      <c r="B199" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="C199" s="33"/>
-      <c r="D199" s="33"/>
-      <c r="E199" s="33"/>
-      <c r="F199" s="33"/>
-      <c r="G199" s="33"/>
-      <c r="H199" s="33"/>
-      <c r="I199" s="34"/>
+      <c r="C199" s="29"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="29"/>
+      <c r="F199" s="29"/>
+      <c r="G199" s="29"/>
+      <c r="H199" s="29"/>
+      <c r="I199" s="30"/>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" s="4" t="s">
@@ -8554,13 +8392,13 @@
       </c>
     </row>
     <row r="210" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="30" t="s">
+      <c r="B210" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="C210" s="33"/>
-      <c r="D210" s="33"/>
-      <c r="E210" s="33"/>
-      <c r="F210" s="34"/>
+      <c r="C210" s="29"/>
+      <c r="D210" s="29"/>
+      <c r="E210" s="29"/>
+      <c r="F210" s="30"/>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="4" t="s">
@@ -8572,10 +8410,10 @@
       <c r="D211" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E211" s="35" t="s">
+      <c r="E211" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="F211" s="36"/>
+      <c r="F211" s="40"/>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="6">
@@ -8587,10 +8425,10 @@
       <c r="D212" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E212" s="31">
+      <c r="E212" s="35">
         <v>147.69</v>
       </c>
-      <c r="F212" s="32"/>
+      <c r="F212" s="36"/>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="6">
@@ -8602,10 +8440,10 @@
       <c r="D213" s="7">
         <v>78.56</v>
       </c>
-      <c r="E213" s="31">
+      <c r="E213" s="35">
         <v>143.83000000000001</v>
       </c>
-      <c r="F213" s="32"/>
+      <c r="F213" s="36"/>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="6">
@@ -8617,10 +8455,10 @@
       <c r="D214" s="7">
         <v>75.680000000000007</v>
       </c>
-      <c r="E214" s="31">
+      <c r="E214" s="35">
         <v>138.01</v>
       </c>
-      <c r="F214" s="32"/>
+      <c r="F214" s="36"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="6">
@@ -8632,10 +8470,10 @@
       <c r="D215" s="7">
         <v>74.510000000000005</v>
       </c>
-      <c r="E215" s="31">
+      <c r="E215" s="35">
         <v>136.07</v>
       </c>
-      <c r="F215" s="32"/>
+      <c r="F215" s="36"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="6">
@@ -8647,10 +8485,10 @@
       <c r="D216" s="7">
         <v>73.099999999999994</v>
       </c>
-      <c r="E216" s="31">
+      <c r="E216" s="35">
         <v>137.38999999999999</v>
       </c>
-      <c r="F216" s="32"/>
+      <c r="F216" s="36"/>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="6">
@@ -8662,10 +8500,10 @@
       <c r="D217" s="7">
         <v>65.61</v>
       </c>
-      <c r="E217" s="31">
+      <c r="E217" s="35">
         <v>119.8</v>
       </c>
-      <c r="F217" s="32"/>
+      <c r="F217" s="36"/>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="6">
@@ -8677,30 +8515,31 @@
       <c r="D218" s="7">
         <v>52.27</v>
       </c>
-      <c r="E218" s="31">
+      <c r="E218" s="35">
         <v>95.11</v>
       </c>
-      <c r="F218" s="32"/>
+      <c r="F218" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B188:E188"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="B155:I155"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="B199:I199"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="B210:F210"/>
     <mergeCell ref="B67:F67"/>
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B89:E89"/>
@@ -8717,25 +8556,11 @@
     <mergeCell ref="D189:E189"/>
     <mergeCell ref="D190:E190"/>
     <mergeCell ref="D191:E191"/>
-    <mergeCell ref="B199:I199"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="E214:F214"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B34:G34"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="B155:I155"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="E211:F211"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D13:F13"/>
@@ -8744,227 +8569,240 @@
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B188:E188"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
   </mergeCells>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="114" priority="116" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="94" priority="116" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:G22 E3:E9 E32:G33 E43:G44">
-    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Critical">
-      <formula>NOT(ISERROR(SEARCH("Critical",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="117" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="118" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="119" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
+  <conditionalFormatting sqref="E21:G22 E32:G33 E43:G44">
+    <cfRule type="containsText" dxfId="93" priority="115" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="117" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="118" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="119" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I50">
-    <cfRule type="containsText" dxfId="109" priority="113" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="89" priority="113" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",I13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="114" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="88" priority="114" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",I13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:G42">
-    <cfRule type="containsText" dxfId="99" priority="101" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="87" priority="101" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="102" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="86" priority="102" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="103" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="85" priority="103" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="104" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="84" priority="104" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:F64">
-    <cfRule type="containsText" dxfId="91" priority="93" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="83" priority="93" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="94" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="82" priority="94" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="95" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="81" priority="95" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="96" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="80" priority="96" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:F75">
-    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="79" priority="89" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="78" priority="90" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="91" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="77" priority="91" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="92" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="76" priority="92" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:E86">
-    <cfRule type="containsText" dxfId="83" priority="85" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="75" priority="85" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="86" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="74" priority="86" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="87" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="73" priority="87" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="88" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="72" priority="88" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:E97">
-    <cfRule type="containsText" dxfId="79" priority="81" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="71" priority="81" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="82" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="70" priority="82" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="83" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="69" priority="83" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="84" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="68" priority="84" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:E108">
-    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="67" priority="77" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="66" priority="78" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="79" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="65" priority="79" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="80" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="64" priority="80" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113:E119">
-    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="63" priority="73" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="74" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="62" priority="74" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="75" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="61" priority="75" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="76" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="60" priority="76" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:E130">
-    <cfRule type="containsText" dxfId="67" priority="69" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="59" priority="69" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="70" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="58" priority="70" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="71" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="57" priority="71" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="72" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="56" priority="72" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:E141">
-    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="55" priority="65" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="66" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="54" priority="66" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="67" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="53" priority="67" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="68" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="52" priority="68" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146:G152">
-    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="51" priority="61" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="50" priority="62" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="63" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="49" priority="63" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="64" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="48" priority="64" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157:G158 E160:G163 F159:G159">
-    <cfRule type="containsText" dxfId="55" priority="57" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="47" priority="57" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="58" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="46" priority="58" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="59" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="45" priority="59" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="60" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="44" priority="60" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:G174">
-    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="43" priority="53" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="42" priority="54" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="55" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="41" priority="55" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="56" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="40" priority="56" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E168)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179:E185">
-    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="39" priority="49" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="38" priority="50" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="37" priority="51" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="36" priority="52" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D190:D196">
-    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="35" priority="45" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",D190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="34" priority="46" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="47" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="33" priority="47" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="48" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="32" priority="48" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D190)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/webdownload/files/Countries.xlsx
+++ b/webdownload/files/Countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3DB8C9-AA73-4AB3-A15B-252D39A0054C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEB09C8-03A7-4F87-B92E-4FE978ADA782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8135E593-2244-9141-AD95-15B174B66CDB}"/>
   </bookViews>
@@ -736,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -816,13 +816,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -891,11 +902,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -906,35 +917,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -948,13 +935,40 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2018,7 +2032,7 @@
   <dimension ref="B1:BUT229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2031,18 +2045,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:1918" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="2:1918" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -6241,11 +6255,11 @@
       <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="47"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -6255,11 +6269,11 @@
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="46"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -6269,11 +6283,11 @@
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="46"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -6283,11 +6297,11 @@
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="46"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="38"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -6297,11 +6311,11 @@
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="46"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="38"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -6311,11 +6325,11 @@
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="46"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -6325,11 +6339,11 @@
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="46"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -6339,18 +6353,18 @@
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="46"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C34" s="44"/>
+      <c r="C34" s="36"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
@@ -6456,7 +6470,7 @@
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
-      <c r="G45" s="45"/>
+      <c r="G45" s="37"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
@@ -7502,10 +7516,10 @@
       <c r="D134" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E134" s="33" t="s">
+      <c r="E134" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="F134" s="34"/>
+      <c r="F134" s="46"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="6">
@@ -7517,10 +7531,10 @@
       <c r="D135" s="13">
         <v>7800</v>
       </c>
-      <c r="E135" s="37" t="s">
+      <c r="E135" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F135" s="38"/>
+      <c r="F135" s="34"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="6">
@@ -7532,10 +7546,10 @@
       <c r="D136" s="13">
         <v>916</v>
       </c>
-      <c r="E136" s="37" t="s">
+      <c r="E136" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F136" s="38"/>
+      <c r="F136" s="34"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="6">
@@ -7547,10 +7561,10 @@
       <c r="D137" s="13">
         <v>94430</v>
       </c>
-      <c r="E137" s="37" t="s">
+      <c r="E137" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F137" s="38"/>
+      <c r="F137" s="34"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="6">
@@ -7562,10 +7576,10 @@
       <c r="D138" s="13">
         <v>37540</v>
       </c>
-      <c r="E138" s="37" t="s">
+      <c r="E138" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F138" s="38"/>
+      <c r="F138" s="34"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="6">
@@ -7577,10 +7591,10 @@
       <c r="D139" s="13">
         <v>53888</v>
       </c>
-      <c r="E139" s="37" t="s">
+      <c r="E139" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F139" s="38"/>
+      <c r="F139" s="34"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="6">
@@ -7592,10 +7606,10 @@
       <c r="D140" s="13">
         <v>110168</v>
       </c>
-      <c r="E140" s="37" t="s">
+      <c r="E140" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F140" s="38"/>
+      <c r="F140" s="34"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="6">
@@ -7607,10 +7621,10 @@
       <c r="D141" s="13">
         <v>135955</v>
       </c>
-      <c r="E141" s="37" t="s">
+      <c r="E141" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F141" s="38"/>
+      <c r="F141" s="34"/>
     </row>
     <row r="144" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="30" t="s">
@@ -7933,10 +7947,10 @@
       <c r="G167" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H167" s="33" t="s">
+      <c r="H167" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="I167" s="34"/>
+      <c r="I167" s="46"/>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="6">
@@ -7957,10 +7971,10 @@
       <c r="G168" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="H168" s="35">
+      <c r="H168" s="48">
         <v>28</v>
       </c>
-      <c r="I168" s="36"/>
+      <c r="I168" s="49"/>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="6">
@@ -7981,10 +7995,10 @@
       <c r="G169" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="H169" s="35">
+      <c r="H169" s="48">
         <v>13</v>
       </c>
-      <c r="I169" s="36"/>
+      <c r="I169" s="49"/>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="6">
@@ -8005,10 +8019,10 @@
       <c r="G170" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H170" s="35" t="s">
+      <c r="H170" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="I170" s="36"/>
+      <c r="I170" s="49"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="6">
@@ -8029,10 +8043,10 @@
       <c r="G171" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H171" s="37" t="s">
+      <c r="H171" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="I171" s="38"/>
+      <c r="I171" s="34"/>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="6">
@@ -8053,10 +8067,10 @@
       <c r="G172" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="H172" s="37" t="s">
+      <c r="H172" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="I172" s="38"/>
+      <c r="I172" s="34"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="6">
@@ -8077,10 +8091,10 @@
       <c r="G173" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="H173" s="37" t="s">
+      <c r="H173" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="I173" s="38"/>
+      <c r="I173" s="34"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="6">
@@ -8101,10 +8115,10 @@
       <c r="G174" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H174" s="37" t="s">
+      <c r="H174" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I174" s="38"/>
+      <c r="I174" s="34"/>
     </row>
     <row r="177" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="30" t="s">
@@ -8411,10 +8425,10 @@
       <c r="C200" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D200" s="41" t="s">
+      <c r="D200" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E200" s="42"/>
+      <c r="E200" s="47"/>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="6">
@@ -8423,10 +8437,10 @@
       <c r="C201" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D201" s="39">
+      <c r="D201" s="43">
         <v>0.95399999999999996</v>
       </c>
-      <c r="E201" s="40"/>
+      <c r="E201" s="44"/>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="6">
@@ -8435,10 +8449,10 @@
       <c r="C202" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D202" s="39">
+      <c r="D202" s="43">
         <v>0.94599999999999995</v>
       </c>
-      <c r="E202" s="40"/>
+      <c r="E202" s="44"/>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="6">
@@ -8447,10 +8461,10 @@
       <c r="C203" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D203" s="39">
+      <c r="D203" s="43">
         <v>0.94199999999999995</v>
       </c>
-      <c r="E203" s="40"/>
+      <c r="E203" s="44"/>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="6">
@@ -8459,10 +8473,10 @@
       <c r="C204" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D204" s="39">
+      <c r="D204" s="43">
         <v>0.93799999999999994</v>
       </c>
-      <c r="E204" s="40"/>
+      <c r="E204" s="44"/>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" s="6">
@@ -8471,10 +8485,10 @@
       <c r="C205" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D205" s="39">
+      <c r="D205" s="43">
         <v>0.93300000000000005</v>
       </c>
-      <c r="E205" s="40"/>
+      <c r="E205" s="44"/>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" s="6">
@@ -8483,10 +8497,10 @@
       <c r="C206" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D206" s="39">
+      <c r="D206" s="43">
         <v>0.93</v>
       </c>
-      <c r="E206" s="40"/>
+      <c r="E206" s="44"/>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" s="6">
@@ -8495,10 +8509,10 @@
       <c r="C207" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D207" s="39">
+      <c r="D207" s="43">
         <v>0.91400000000000003</v>
       </c>
-      <c r="E207" s="40"/>
+      <c r="E207" s="44"/>
     </row>
     <row r="210" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="30" t="s">
@@ -8739,10 +8753,10 @@
       <c r="D222" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E222" s="33" t="s">
+      <c r="E222" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="F222" s="34"/>
+      <c r="F222" s="46"/>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B223" s="6">
@@ -8754,10 +8768,10 @@
       <c r="D223" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E223" s="28">
+      <c r="E223" s="41">
         <v>147.69</v>
       </c>
-      <c r="F223" s="29"/>
+      <c r="F223" s="42"/>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" s="6">
@@ -8769,10 +8783,10 @@
       <c r="D224" s="7">
         <v>78.56</v>
       </c>
-      <c r="E224" s="28">
+      <c r="E224" s="41">
         <v>143.83000000000001</v>
       </c>
-      <c r="F224" s="29"/>
+      <c r="F224" s="42"/>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="6">
@@ -8784,10 +8798,10 @@
       <c r="D225" s="7">
         <v>75.680000000000007</v>
       </c>
-      <c r="E225" s="28">
+      <c r="E225" s="41">
         <v>138.01</v>
       </c>
-      <c r="F225" s="29"/>
+      <c r="F225" s="42"/>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="6">
@@ -8799,10 +8813,10 @@
       <c r="D226" s="7">
         <v>74.510000000000005</v>
       </c>
-      <c r="E226" s="28">
+      <c r="E226" s="41">
         <v>136.07</v>
       </c>
-      <c r="F226" s="29"/>
+      <c r="F226" s="42"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="6">
@@ -8814,10 +8828,10 @@
       <c r="D227" s="7">
         <v>73.099999999999994</v>
       </c>
-      <c r="E227" s="28">
+      <c r="E227" s="41">
         <v>137.38999999999999</v>
       </c>
-      <c r="F227" s="29"/>
+      <c r="F227" s="42"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="6">
@@ -8829,10 +8843,10 @@
       <c r="D228" s="7">
         <v>65.61</v>
       </c>
-      <c r="E228" s="28">
+      <c r="E228" s="41">
         <v>119.8</v>
       </c>
-      <c r="F228" s="29"/>
+      <c r="F228" s="42"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="6">
@@ -8844,37 +8858,34 @@
       <c r="D229" s="7">
         <v>52.27</v>
       </c>
-      <c r="E229" s="28">
+      <c r="E229" s="41">
         <v>95.11</v>
       </c>
-      <c r="F229" s="29"/>
+      <c r="F229" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B188:E188"/>
-    <mergeCell ref="B155:G155"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="B166:I166"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="B210:I210"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B111:E111"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="E228:F228"/>
@@ -8891,27 +8902,30 @@
     <mergeCell ref="D202:E202"/>
     <mergeCell ref="B199:E199"/>
     <mergeCell ref="E226:F226"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="B166:I166"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="B188:E188"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <conditionalFormatting sqref="H35">
     <cfRule type="containsText" dxfId="94" priority="124" operator="containsText" text="Critical">

--- a/webdownload/files/Countries.xlsx
+++ b/webdownload/files/Countries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEB09C8-03A7-4F87-B92E-4FE978ADA782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B550141-33A2-463F-A257-2B357E475662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8135E593-2244-9141-AD95-15B174B66CDB}"/>
+    <workbookView xWindow="-10500" yWindow="4380" windowWidth="21600" windowHeight="11385" xr2:uid="{8135E593-2244-9141-AD95-15B174B66CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries Comparison" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="210">
   <si>
     <t>Rank</t>
   </si>
@@ -643,6 +643,18 @@
   </si>
   <si>
     <t>No Data</t>
+  </si>
+  <si>
+    <t>List of countries by homeless population</t>
+  </si>
+  <si>
+    <t>Homeless Pop.</t>
+  </si>
+  <si>
+    <t>Homeless per 10,000</t>
+  </si>
+  <si>
+    <t>Data Year</t>
   </si>
 </sst>
 </file>
@@ -902,11 +914,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -917,11 +929,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -932,44 +980,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -977,7 +989,38 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="99">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2029,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157B9841-E19E-7940-B487-B36C470A6391}">
-  <dimension ref="B1:BUT229"/>
+  <dimension ref="B1:BUT240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G224" sqref="G224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2045,18 +2088,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:1918" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="50"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="2:1918" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -2098,7 +2141,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="14">
         <v>3</v>
@@ -2151,7 +2194,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:1918" x14ac:dyDescent="0.25">
@@ -2168,7 +2211,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="14">
         <v>8</v>
@@ -2209,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="14">
         <v>1</v>
@@ -2229,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="14">
         <v>2</v>
@@ -2270,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="14">
         <v>4</v>
@@ -2299,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="14">
         <v>1</v>
@@ -6255,11 +6298,11 @@
       <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -6269,11 +6312,11 @@
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="38"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -6283,11 +6326,11 @@
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="38"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="39"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -6297,11 +6340,11 @@
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="38"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="39"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -6311,11 +6354,11 @@
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="38"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="39"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -6325,11 +6368,11 @@
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="38"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="39"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -6339,11 +6382,11 @@
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="38"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -6353,18 +6396,18 @@
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="38"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="C34" s="36"/>
+      <c r="C34" s="48"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
@@ -6470,7 +6513,7 @@
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
-      <c r="G45" s="37"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
@@ -7516,10 +7559,10 @@
       <c r="D134" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E134" s="45" t="s">
+      <c r="E134" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F134" s="46"/>
+      <c r="F134" s="34"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="6">
@@ -7531,10 +7574,10 @@
       <c r="D135" s="13">
         <v>7800</v>
       </c>
-      <c r="E135" s="33" t="s">
+      <c r="E135" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F135" s="34"/>
+      <c r="F135" s="38"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="6">
@@ -7546,10 +7589,10 @@
       <c r="D136" s="13">
         <v>916</v>
       </c>
-      <c r="E136" s="33" t="s">
+      <c r="E136" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F136" s="34"/>
+      <c r="F136" s="38"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="6">
@@ -7561,10 +7604,10 @@
       <c r="D137" s="13">
         <v>94430</v>
       </c>
-      <c r="E137" s="33" t="s">
+      <c r="E137" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F137" s="34"/>
+      <c r="F137" s="38"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="6">
@@ -7576,10 +7619,10 @@
       <c r="D138" s="13">
         <v>37540</v>
       </c>
-      <c r="E138" s="33" t="s">
+      <c r="E138" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F138" s="34"/>
+      <c r="F138" s="38"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="6">
@@ -7591,10 +7634,10 @@
       <c r="D139" s="13">
         <v>53888</v>
       </c>
-      <c r="E139" s="33" t="s">
+      <c r="E139" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F139" s="34"/>
+      <c r="F139" s="38"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="6">
@@ -7606,10 +7649,10 @@
       <c r="D140" s="13">
         <v>110168</v>
       </c>
-      <c r="E140" s="33" t="s">
+      <c r="E140" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="F140" s="34"/>
+      <c r="F140" s="38"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="6">
@@ -7621,10 +7664,10 @@
       <c r="D141" s="13">
         <v>135955</v>
       </c>
-      <c r="E141" s="33" t="s">
+      <c r="E141" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="F141" s="34"/>
+      <c r="F141" s="38"/>
     </row>
     <row r="144" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="30" t="s">
@@ -7947,10 +7990,10 @@
       <c r="G167" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H167" s="45" t="s">
+      <c r="H167" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="I167" s="46"/>
+      <c r="I167" s="34"/>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="6">
@@ -7971,10 +8014,10 @@
       <c r="G168" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="H168" s="48">
+      <c r="H168" s="35">
         <v>28</v>
       </c>
-      <c r="I168" s="49"/>
+      <c r="I168" s="36"/>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="6">
@@ -7995,10 +8038,10 @@
       <c r="G169" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="H169" s="48">
+      <c r="H169" s="35">
         <v>13</v>
       </c>
-      <c r="I169" s="49"/>
+      <c r="I169" s="36"/>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="6">
@@ -8019,10 +8062,10 @@
       <c r="G170" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H170" s="48" t="s">
+      <c r="H170" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I170" s="49"/>
+      <c r="I170" s="36"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="6">
@@ -8043,10 +8086,10 @@
       <c r="G171" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H171" s="33" t="s">
+      <c r="H171" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="I171" s="34"/>
+      <c r="I171" s="38"/>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="6">
@@ -8067,10 +8110,10 @@
       <c r="G172" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="H172" s="33" t="s">
+      <c r="H172" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="I172" s="34"/>
+      <c r="I172" s="38"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="6">
@@ -8091,10 +8134,10 @@
       <c r="G173" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="H173" s="33" t="s">
+      <c r="H173" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="I173" s="34"/>
+      <c r="I173" s="38"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="6">
@@ -8115,10 +8158,10 @@
       <c r="G174" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H174" s="33" t="s">
+      <c r="H174" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I174" s="34"/>
+      <c r="I174" s="38"/>
     </row>
     <row r="177" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="30" t="s">
@@ -8425,10 +8468,10 @@
       <c r="C200" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D200" s="39" t="s">
+      <c r="D200" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="E200" s="47"/>
+      <c r="E200" s="43"/>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="6">
@@ -8437,10 +8480,10 @@
       <c r="C201" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D201" s="43">
+      <c r="D201" s="40">
         <v>0.95399999999999996</v>
       </c>
-      <c r="E201" s="44"/>
+      <c r="E201" s="41"/>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="6">
@@ -8449,10 +8492,10 @@
       <c r="C202" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D202" s="43">
+      <c r="D202" s="40">
         <v>0.94599999999999995</v>
       </c>
-      <c r="E202" s="44"/>
+      <c r="E202" s="41"/>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="6">
@@ -8461,10 +8504,10 @@
       <c r="C203" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D203" s="43">
+      <c r="D203" s="40">
         <v>0.94199999999999995</v>
       </c>
-      <c r="E203" s="44"/>
+      <c r="E203" s="41"/>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="6">
@@ -8473,10 +8516,10 @@
       <c r="C204" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D204" s="43">
+      <c r="D204" s="40">
         <v>0.93799999999999994</v>
       </c>
-      <c r="E204" s="44"/>
+      <c r="E204" s="41"/>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" s="6">
@@ -8485,10 +8528,10 @@
       <c r="C205" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D205" s="43">
+      <c r="D205" s="40">
         <v>0.93300000000000005</v>
       </c>
-      <c r="E205" s="44"/>
+      <c r="E205" s="41"/>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" s="6">
@@ -8497,10 +8540,10 @@
       <c r="C206" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D206" s="43">
+      <c r="D206" s="40">
         <v>0.93</v>
       </c>
-      <c r="E206" s="44"/>
+      <c r="E206" s="41"/>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" s="6">
@@ -8509,10 +8552,10 @@
       <c r="C207" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D207" s="43">
+      <c r="D207" s="40">
         <v>0.91400000000000003</v>
       </c>
-      <c r="E207" s="44"/>
+      <c r="E207" s="41"/>
     </row>
     <row r="210" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="30" t="s">
@@ -8753,10 +8796,10 @@
       <c r="D222" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E222" s="45" t="s">
+      <c r="E222" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="F222" s="46"/>
+      <c r="F222" s="34"/>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B223" s="6">
@@ -8768,10 +8811,10 @@
       <c r="D223" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E223" s="41">
+      <c r="E223" s="28">
         <v>147.69</v>
       </c>
-      <c r="F223" s="42"/>
+      <c r="F223" s="29"/>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" s="6">
@@ -8783,10 +8826,10 @@
       <c r="D224" s="7">
         <v>78.56</v>
       </c>
-      <c r="E224" s="41">
+      <c r="E224" s="28">
         <v>143.83000000000001</v>
       </c>
-      <c r="F224" s="42"/>
+      <c r="F224" s="29"/>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="6">
@@ -8798,10 +8841,10 @@
       <c r="D225" s="7">
         <v>75.680000000000007</v>
       </c>
-      <c r="E225" s="41">
+      <c r="E225" s="28">
         <v>138.01</v>
       </c>
-      <c r="F225" s="42"/>
+      <c r="F225" s="29"/>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="6">
@@ -8813,10 +8856,10 @@
       <c r="D226" s="7">
         <v>74.510000000000005</v>
       </c>
-      <c r="E226" s="41">
+      <c r="E226" s="28">
         <v>136.07</v>
       </c>
-      <c r="F226" s="42"/>
+      <c r="F226" s="29"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="6">
@@ -8828,10 +8871,10 @@
       <c r="D227" s="7">
         <v>73.099999999999994</v>
       </c>
-      <c r="E227" s="41">
+      <c r="E227" s="28">
         <v>137.38999999999999</v>
       </c>
-      <c r="F227" s="42"/>
+      <c r="F227" s="29"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="6">
@@ -8843,10 +8886,10 @@
       <c r="D228" s="7">
         <v>65.61</v>
       </c>
-      <c r="E228" s="41">
+      <c r="E228" s="28">
         <v>119.8</v>
       </c>
-      <c r="F228" s="42"/>
+      <c r="F228" s="29"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="6">
@@ -8858,13 +8901,204 @@
       <c r="D229" s="7">
         <v>52.27</v>
       </c>
-      <c r="E229" s="41">
+      <c r="E229" s="28">
         <v>95.11</v>
       </c>
-      <c r="F229" s="42"/>
+      <c r="F229" s="29"/>
+    </row>
+    <row r="232" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C232" s="31"/>
+      <c r="D232" s="31"/>
+      <c r="E232" s="31"/>
+      <c r="F232" s="32"/>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B233" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B234" s="6">
+        <v>1</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="13">
+        <v>3909</v>
+      </c>
+      <c r="E234" s="13">
+        <v>7</v>
+      </c>
+      <c r="F234" s="14">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B235" s="6">
+        <v>2</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" s="13">
+        <v>349</v>
+      </c>
+      <c r="E235" s="13">
+        <v>10</v>
+      </c>
+      <c r="F235" s="14">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B236" s="6">
+        <v>3</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236" s="13">
+        <v>6635</v>
+      </c>
+      <c r="E236" s="13">
+        <v>11</v>
+      </c>
+      <c r="F236" s="14">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B237" s="6">
+        <v>4</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="13">
+        <v>14603</v>
+      </c>
+      <c r="E237" s="13">
+        <v>17</v>
+      </c>
+      <c r="F237" s="14">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B238" s="6">
+        <v>5</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D238" s="13">
+        <v>10338</v>
+      </c>
+      <c r="E238" s="13">
+        <v>21</v>
+      </c>
+      <c r="F238" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B239" s="6">
+        <v>6</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" s="13">
+        <v>39300</v>
+      </c>
+      <c r="E239" s="13">
+        <v>23</v>
+      </c>
+      <c r="F239" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B240" s="6">
+        <v>7</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E240" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F240" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="62">
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="B177:G177"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B188:E188"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
     <mergeCell ref="E229:F229"/>
     <mergeCell ref="B166:I166"/>
     <mergeCell ref="H167:I167"/>
@@ -8881,389 +9115,358 @@
     <mergeCell ref="E224:F224"/>
     <mergeCell ref="E225:F225"/>
     <mergeCell ref="E227:F227"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="E228:F228"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="B199:E199"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="B188:E188"/>
-    <mergeCell ref="B155:G155"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="94" priority="124" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="98" priority="128" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:G33 E43:G44 E54:G55">
-    <cfRule type="containsText" dxfId="93" priority="123" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="97" priority="127" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="125" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="96" priority="129" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="126" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="95" priority="130" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="127" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="94" priority="131" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:I61">
-    <cfRule type="containsText" dxfId="89" priority="121" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="93" priority="125" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",I24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="122" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="92" priority="126" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",I24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:G53">
-    <cfRule type="containsText" dxfId="87" priority="109" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="91" priority="113" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="110" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="90" priority="114" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="111" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="89" priority="115" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="112" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="88" priority="116" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:F75">
-    <cfRule type="containsText" dxfId="83" priority="101" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="87" priority="105" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="102" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="86" priority="106" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="103" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="85" priority="107" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="104" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="84" priority="108" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:F86">
-    <cfRule type="containsText" dxfId="79" priority="97" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="83" priority="101" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="98" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="82" priority="102" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="99" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="81" priority="103" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="100" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="80" priority="104" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:E97">
-    <cfRule type="containsText" dxfId="75" priority="93" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="79" priority="97" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="94" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="78" priority="98" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="95" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="77" priority="99" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="96" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="76" priority="100" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:E108">
-    <cfRule type="containsText" dxfId="71" priority="89" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="75" priority="93" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="90" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="74" priority="94" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="91" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="73" priority="95" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="92" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="72" priority="96" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113:E119">
-    <cfRule type="containsText" dxfId="67" priority="85" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="71" priority="89" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="86" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="70" priority="90" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="87" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="69" priority="91" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="88" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="68" priority="92" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:E130">
-    <cfRule type="containsText" dxfId="63" priority="81" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="67" priority="85" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="82" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="66" priority="86" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="83" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="65" priority="87" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="84" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="64" priority="88" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:E141">
-    <cfRule type="containsText" dxfId="59" priority="77" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="63" priority="81" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="78" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="62" priority="82" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="79" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="61" priority="83" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="80" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="60" priority="84" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146:E152">
-    <cfRule type="containsText" dxfId="55" priority="73" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="59" priority="77" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="74" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="58" priority="78" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="75" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="57" priority="79" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="76" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="56" priority="80" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157:G163">
-    <cfRule type="containsText" dxfId="51" priority="69" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="55" priority="73" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="70" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="54" priority="74" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="71" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="53" priority="75" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="72" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="52" priority="76" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:G169 E171:G174 F170:G170">
-    <cfRule type="containsText" dxfId="47" priority="65" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="51" priority="69" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="66" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="50" priority="70" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="67" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="49" priority="71" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="68" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="48" priority="72" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E168)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179:G185">
-    <cfRule type="containsText" dxfId="43" priority="61" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="47" priority="65" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="62" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="46" priority="66" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="63" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="45" priority="67" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="64" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="44" priority="68" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190:E196">
-    <cfRule type="containsText" dxfId="39" priority="57" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="43" priority="61" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="58" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="42" priority="62" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="59" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="41" priority="63" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="60" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="40" priority="64" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D201:D207">
-    <cfRule type="containsText" dxfId="35" priority="53" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="39" priority="57" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",D201)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="54" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="38" priority="58" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D201)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="55" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="37" priority="59" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D201)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="56" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="36" priority="60" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E214:G218 F213:G213">
-    <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="35" priority="45" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="42" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="34" priority="46" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="33" priority="47" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="44" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="32" priority="48" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H213:I218">
-    <cfRule type="containsText" dxfId="27" priority="37" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="38" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="30" priority="42" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",H213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="39" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",H213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="40" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="28" priority="44" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",H213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F212:G212">
-    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="27" priority="37" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",F212)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="34" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="26" priority="38" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F212)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="25" priority="39" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F212)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="36" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="24" priority="40" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F212)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H212:I212">
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H212)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="22" priority="34" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",H212)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",H212)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="20" priority="36" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",H212)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E223:E229">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="26" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="28" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168:H174">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="22" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="14" priority="26" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",H168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",H168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="24" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="12" priority="28" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",H168)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",H56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",H56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E234:F240">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",E234)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E234)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E234)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E234)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webdownload/files/Countries.xlsx
+++ b/webdownload/files/Countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeppy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B550141-33A2-463F-A257-2B357E475662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41757D82-600D-4219-97E9-C34E51647709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10500" yWindow="4380" windowWidth="21600" windowHeight="11385" xr2:uid="{8135E593-2244-9141-AD95-15B174B66CDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8135E593-2244-9141-AD95-15B174B66CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries Comparison" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="211">
   <si>
     <t>Rank</t>
   </si>
@@ -655,16 +655,20 @@
   </si>
   <si>
     <t>Data Year</t>
+  </si>
+  <si>
+    <t>Homeless Pop.  %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$€-413]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -845,7 +849,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -914,12 +918,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -928,39 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,8 +945,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -989,7 +999,255 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="131">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9887"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2074,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157B9841-E19E-7940-B487-B36C470A6391}">
   <dimension ref="B1:BUT240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G224" sqref="G224"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2088,18 +2346,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:1918" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="2:1918" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -2249,10 +2507,10 @@
         <v>2</v>
       </c>
       <c r="H6" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="14">
         <v>1</v>
@@ -2310,10 +2568,10 @@
         <v>2</v>
       </c>
       <c r="G8" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" s="14">
         <v>4</v>
@@ -2342,13 +2600,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="14">
         <v>1</v>
       </c>
       <c r="I9" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="14">
         <v>4</v>
@@ -2358,11 +2616,11 @@
       </c>
     </row>
     <row r="12" spans="2:1918" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12"/>
@@ -6283,13 +6541,13 @@
     <row r="21" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:7" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -6298,11 +6556,11 @@
       <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="50"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -6316,7 +6574,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="37"/>
-      <c r="F25" s="39"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -6330,7 +6588,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="37"/>
-      <c r="F26" s="39"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -6344,7 +6602,7 @@
         <v>15</v>
       </c>
       <c r="E27" s="37"/>
-      <c r="F27" s="39"/>
+      <c r="F27" s="38"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -6358,7 +6616,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="37"/>
-      <c r="F28" s="39"/>
+      <c r="F28" s="38"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -6372,7 +6630,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="37"/>
-      <c r="F29" s="39"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -6386,7 +6644,7 @@
         <v>18</v>
       </c>
       <c r="E30" s="37"/>
-      <c r="F30" s="39"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -6400,14 +6658,14 @@
         <v>19</v>
       </c>
       <c r="E31" s="37"/>
-      <c r="F31" s="39"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="2"/>
     </row>
     <row r="34" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="C34" s="48"/>
+      <c r="C34" s="35"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
@@ -6506,14 +6764,14 @@
       <c r="G42" s="2"/>
     </row>
     <row r="45" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="49"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="36"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
@@ -6676,11 +6934,11 @@
       </c>
     </row>
     <row r="56" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="32"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
@@ -6771,13 +7029,13 @@
       </c>
     </row>
     <row r="67" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="32"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="30"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
@@ -6916,13 +7174,13 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="32"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="30"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
@@ -7061,12 +7319,12 @@
       </c>
     </row>
     <row r="89" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="32"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="30"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
@@ -7181,12 +7439,12 @@
       </c>
     </row>
     <row r="100" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="32"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="30"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
@@ -7301,12 +7559,12 @@
       </c>
     </row>
     <row r="111" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="32"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="30"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
@@ -7421,12 +7679,12 @@
       </c>
     </row>
     <row r="122" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C122" s="31"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="32"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="30"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
@@ -7541,13 +7799,13 @@
       </c>
     </row>
     <row r="133" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="32"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="30"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
@@ -7559,10 +7817,10 @@
       <c r="D134" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E134" s="33" t="s">
+      <c r="E134" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="F134" s="34"/>
+      <c r="F134" s="46"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="6">
@@ -7577,7 +7835,7 @@
       <c r="E135" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F135" s="38"/>
+      <c r="F135" s="47"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="6">
@@ -7592,7 +7850,7 @@
       <c r="E136" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F136" s="38"/>
+      <c r="F136" s="47"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="6">
@@ -7607,7 +7865,7 @@
       <c r="E137" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F137" s="38"/>
+      <c r="F137" s="47"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="6">
@@ -7622,7 +7880,7 @@
       <c r="E138" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="F138" s="38"/>
+      <c r="F138" s="47"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="6">
@@ -7637,7 +7895,7 @@
       <c r="E139" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F139" s="38"/>
+      <c r="F139" s="47"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="6">
@@ -7652,7 +7910,7 @@
       <c r="E140" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="F140" s="38"/>
+      <c r="F140" s="47"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="6">
@@ -7667,15 +7925,15 @@
       <c r="E141" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="F141" s="38"/>
+      <c r="F141" s="47"/>
     </row>
     <row r="144" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="30" t="s">
+      <c r="B144" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C144" s="31"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="32"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="30"/>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
@@ -7790,14 +8048,14 @@
       </c>
     </row>
     <row r="155" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C155" s="31"/>
-      <c r="D155" s="31"/>
-      <c r="E155" s="31"/>
-      <c r="F155" s="31"/>
-      <c r="G155" s="32"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="30"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="4" t="s">
@@ -7960,16 +8218,16 @@
       </c>
     </row>
     <row r="166" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="30" t="s">
+      <c r="B166" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C166" s="31"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="31"/>
-      <c r="F166" s="31"/>
-      <c r="G166" s="31"/>
-      <c r="H166" s="31"/>
-      <c r="I166" s="32"/>
+      <c r="C166" s="29"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="29"/>
+      <c r="H166" s="29"/>
+      <c r="I166" s="30"/>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="4" t="s">
@@ -7990,10 +8248,10 @@
       <c r="G167" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H167" s="33" t="s">
+      <c r="H167" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="I167" s="34"/>
+      <c r="I167" s="46"/>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="6">
@@ -8014,10 +8272,10 @@
       <c r="G168" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="H168" s="35">
+      <c r="H168" s="49">
         <v>28</v>
       </c>
-      <c r="I168" s="36"/>
+      <c r="I168" s="50"/>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="6">
@@ -8038,10 +8296,10 @@
       <c r="G169" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="H169" s="35">
+      <c r="H169" s="49">
         <v>13</v>
       </c>
-      <c r="I169" s="36"/>
+      <c r="I169" s="50"/>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="6">
@@ -8062,10 +8320,10 @@
       <c r="G170" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H170" s="35" t="s">
+      <c r="H170" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="I170" s="36"/>
+      <c r="I170" s="50"/>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="6">
@@ -8089,7 +8347,7 @@
       <c r="H171" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="I171" s="38"/>
+      <c r="I171" s="47"/>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="6">
@@ -8113,7 +8371,7 @@
       <c r="H172" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="I172" s="38"/>
+      <c r="I172" s="47"/>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="6">
@@ -8137,7 +8395,7 @@
       <c r="H173" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="I173" s="38"/>
+      <c r="I173" s="47"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="6">
@@ -8161,17 +8419,17 @@
       <c r="H174" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I174" s="38"/>
+      <c r="I174" s="47"/>
     </row>
     <row r="177" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="30" t="s">
+      <c r="B177" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C177" s="31"/>
-      <c r="D177" s="31"/>
-      <c r="E177" s="31"/>
-      <c r="F177" s="31"/>
-      <c r="G177" s="32"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="29"/>
+      <c r="G177" s="30"/>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="4" t="s">
@@ -8334,12 +8592,12 @@
       </c>
     </row>
     <row r="188" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="30" t="s">
+      <c r="B188" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C188" s="31"/>
-      <c r="D188" s="31"/>
-      <c r="E188" s="32"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="30"/>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="4" t="s">
@@ -8454,12 +8712,12 @@
       </c>
     </row>
     <row r="199" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="30" t="s">
+      <c r="B199" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C199" s="31"/>
-      <c r="D199" s="31"/>
-      <c r="E199" s="32"/>
+      <c r="C199" s="29"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="30"/>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" s="4" t="s">
@@ -8468,10 +8726,10 @@
       <c r="C200" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D200" s="42" t="s">
+      <c r="D200" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E200" s="43"/>
+      <c r="E200" s="48"/>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="6">
@@ -8480,10 +8738,10 @@
       <c r="C201" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D201" s="40">
+      <c r="D201" s="43">
         <v>0.95399999999999996</v>
       </c>
-      <c r="E201" s="41"/>
+      <c r="E201" s="44"/>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="6">
@@ -8492,10 +8750,10 @@
       <c r="C202" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D202" s="40">
+      <c r="D202" s="43">
         <v>0.94599999999999995</v>
       </c>
-      <c r="E202" s="41"/>
+      <c r="E202" s="44"/>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="6">
@@ -8504,10 +8762,10 @@
       <c r="C203" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D203" s="40">
+      <c r="D203" s="43">
         <v>0.94199999999999995</v>
       </c>
-      <c r="E203" s="41"/>
+      <c r="E203" s="44"/>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="6">
@@ -8516,10 +8774,10 @@
       <c r="C204" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D204" s="40">
+      <c r="D204" s="43">
         <v>0.93799999999999994</v>
       </c>
-      <c r="E204" s="41"/>
+      <c r="E204" s="44"/>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" s="6">
@@ -8528,10 +8786,10 @@
       <c r="C205" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D205" s="40">
+      <c r="D205" s="43">
         <v>0.93300000000000005</v>
       </c>
-      <c r="E205" s="41"/>
+      <c r="E205" s="44"/>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" s="6">
@@ -8540,10 +8798,10 @@
       <c r="C206" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D206" s="40">
+      <c r="D206" s="43">
         <v>0.93</v>
       </c>
-      <c r="E206" s="41"/>
+      <c r="E206" s="44"/>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" s="6">
@@ -8552,22 +8810,22 @@
       <c r="C207" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D207" s="40">
+      <c r="D207" s="43">
         <v>0.91400000000000003</v>
       </c>
-      <c r="E207" s="41"/>
+      <c r="E207" s="44"/>
     </row>
     <row r="210" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="30" t="s">
+      <c r="B210" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="C210" s="31"/>
-      <c r="D210" s="31"/>
-      <c r="E210" s="31"/>
-      <c r="F210" s="31"/>
-      <c r="G210" s="31"/>
-      <c r="H210" s="31"/>
-      <c r="I210" s="32"/>
+      <c r="C210" s="29"/>
+      <c r="D210" s="29"/>
+      <c r="E210" s="29"/>
+      <c r="F210" s="29"/>
+      <c r="G210" s="29"/>
+      <c r="H210" s="29"/>
+      <c r="I210" s="30"/>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" s="4" t="s">
@@ -8778,13 +9036,13 @@
       </c>
     </row>
     <row r="221" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="30" t="s">
+      <c r="B221" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="C221" s="31"/>
-      <c r="D221" s="31"/>
-      <c r="E221" s="31"/>
-      <c r="F221" s="32"/>
+      <c r="C221" s="29"/>
+      <c r="D221" s="29"/>
+      <c r="E221" s="29"/>
+      <c r="F221" s="30"/>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B222" s="4" t="s">
@@ -8796,10 +9054,10 @@
       <c r="D222" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E222" s="33" t="s">
+      <c r="E222" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="F222" s="34"/>
+      <c r="F222" s="46"/>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B223" s="6">
@@ -8811,10 +9069,10 @@
       <c r="D223" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E223" s="28">
+      <c r="E223" s="41">
         <v>147.69</v>
       </c>
-      <c r="F223" s="29"/>
+      <c r="F223" s="42"/>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" s="6">
@@ -8826,12 +9084,12 @@
       <c r="D224" s="7">
         <v>78.56</v>
       </c>
-      <c r="E224" s="28">
+      <c r="E224" s="41">
         <v>143.83000000000001</v>
       </c>
-      <c r="F224" s="29"/>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F224" s="42"/>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" s="6">
         <v>11</v>
       </c>
@@ -8841,12 +9099,12 @@
       <c r="D225" s="7">
         <v>75.680000000000007</v>
       </c>
-      <c r="E225" s="28">
+      <c r="E225" s="41">
         <v>138.01</v>
       </c>
-      <c r="F225" s="29"/>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F225" s="42"/>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="6">
         <v>15</v>
       </c>
@@ -8856,12 +9114,12 @@
       <c r="D226" s="7">
         <v>74.510000000000005</v>
       </c>
-      <c r="E226" s="28">
+      <c r="E226" s="41">
         <v>136.07</v>
       </c>
-      <c r="F226" s="29"/>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F226" s="42"/>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="6">
         <v>19</v>
       </c>
@@ -8871,12 +9129,12 @@
       <c r="D227" s="7">
         <v>73.099999999999994</v>
       </c>
-      <c r="E227" s="28">
+      <c r="E227" s="41">
         <v>137.38999999999999</v>
       </c>
-      <c r="F227" s="29"/>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F227" s="42"/>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="6">
         <v>44</v>
       </c>
@@ -8886,12 +9144,12 @@
       <c r="D228" s="7">
         <v>65.61</v>
       </c>
-      <c r="E228" s="28">
+      <c r="E228" s="41">
         <v>119.8</v>
       </c>
-      <c r="F228" s="29"/>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F228" s="42"/>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" s="6">
         <v>80</v>
       </c>
@@ -8901,21 +9159,22 @@
       <c r="D229" s="7">
         <v>52.27</v>
       </c>
-      <c r="E229" s="28">
+      <c r="E229" s="41">
         <v>95.11</v>
       </c>
-      <c r="F229" s="29"/>
-    </row>
-    <row r="232" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="30" t="s">
+      <c r="F229" s="42"/>
+    </row>
+    <row r="232" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="C232" s="31"/>
-      <c r="D232" s="31"/>
-      <c r="E232" s="31"/>
-      <c r="F232" s="32"/>
-    </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C232" s="29"/>
+      <c r="D232" s="29"/>
+      <c r="E232" s="29"/>
+      <c r="F232" s="29"/>
+      <c r="G232" s="30"/>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" s="4" t="s">
         <v>195</v>
       </c>
@@ -8929,10 +9188,13 @@
         <v>208</v>
       </c>
       <c r="F233" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G233" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" s="6">
         <v>1</v>
       </c>
@@ -8942,14 +9204,17 @@
       <c r="D234" s="13">
         <v>3909</v>
       </c>
-      <c r="E234" s="13">
-        <v>7</v>
-      </c>
-      <c r="F234" s="14">
+      <c r="E234" s="51">
+        <v>7.4</v>
+      </c>
+      <c r="F234" s="52">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G234" s="14">
         <v>2016</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" s="6">
         <v>2</v>
       </c>
@@ -8959,14 +9224,17 @@
       <c r="D235" s="13">
         <v>349</v>
       </c>
-      <c r="E235" s="13">
-        <v>10</v>
-      </c>
-      <c r="F235" s="14">
+      <c r="E235" s="51">
+        <v>10.4</v>
+      </c>
+      <c r="F235" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="G235" s="14">
         <v>2017</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" s="6">
         <v>3</v>
       </c>
@@ -8974,67 +9242,79 @@
         <v>4</v>
       </c>
       <c r="D236" s="13">
-        <v>6635</v>
-      </c>
-      <c r="E236" s="13">
-        <v>11</v>
-      </c>
-      <c r="F236" s="14">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6431</v>
+      </c>
+      <c r="E236" s="51">
+        <v>11.1</v>
+      </c>
+      <c r="F236" s="52">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="G236" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="6">
         <v>4</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D237" s="13">
-        <v>14603</v>
-      </c>
-      <c r="E237" s="13">
-        <v>17</v>
-      </c>
-      <c r="F237" s="14">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+        <v>10338</v>
+      </c>
+      <c r="E237" s="51">
+        <v>21.1</v>
+      </c>
+      <c r="F237" s="52">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G237" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" s="6">
         <v>5</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D238" s="13">
-        <v>10338</v>
-      </c>
-      <c r="E238" s="13">
-        <v>21</v>
-      </c>
-      <c r="F238" s="14">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+        <v>39300</v>
+      </c>
+      <c r="E238" s="51">
+        <v>22.9</v>
+      </c>
+      <c r="F238" s="52">
+        <v>2.3E-3</v>
+      </c>
+      <c r="G238" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B239" s="6">
         <v>6</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D239" s="13">
-        <v>39300</v>
-      </c>
-      <c r="E239" s="13">
-        <v>23</v>
-      </c>
-      <c r="F239" s="14">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+        <v>21567</v>
+      </c>
+      <c r="E239" s="51">
+        <v>24.6</v>
+      </c>
+      <c r="F239" s="52">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G239" s="14">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B240" s="6">
         <v>7</v>
       </c>
@@ -9047,28 +9327,46 @@
       <c r="E240" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F240" s="14" t="s">
+      <c r="F240" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G240" s="14" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B232:G232"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="B166:I166"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="B210:I210"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B188:E188"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D27:F27"/>
@@ -9085,388 +9383,485 @@
     <mergeCell ref="D201:E201"/>
     <mergeCell ref="D202:E202"/>
     <mergeCell ref="B199:E199"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B188:E188"/>
-    <mergeCell ref="B155:G155"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="B166:I166"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="E227:F227"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
   </mergeCells>
   <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="98" priority="128" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="130" priority="160" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:G33 E43:G44 E54:G55">
-    <cfRule type="containsText" dxfId="97" priority="127" operator="containsText" text="Critical">
+  <conditionalFormatting sqref="E32:G33 E43:G44 E54:G55 E240:G240 E238:G238">
+    <cfRule type="containsText" dxfId="129" priority="159" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="129" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="128" priority="161" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="130" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="127" priority="162" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="131" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="126" priority="163" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:I61">
-    <cfRule type="containsText" dxfId="93" priority="125" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="125" priority="157" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",I24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="126" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="124" priority="158" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",I24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:G53">
-    <cfRule type="containsText" dxfId="91" priority="113" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="123" priority="145" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="114" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="122" priority="146" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="115" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="121" priority="147" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="116" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="120" priority="148" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:F75">
-    <cfRule type="containsText" dxfId="87" priority="105" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="119" priority="137" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="106" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="118" priority="138" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="107" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="117" priority="139" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="108" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="116" priority="140" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:F86">
-    <cfRule type="containsText" dxfId="83" priority="101" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="115" priority="133" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="102" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="114" priority="134" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="103" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="113" priority="135" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="104" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="112" priority="136" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91:E97">
-    <cfRule type="containsText" dxfId="79" priority="97" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="111" priority="129" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="98" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="110" priority="130" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="99" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="109" priority="131" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="100" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="108" priority="132" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:E108">
-    <cfRule type="containsText" dxfId="75" priority="93" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="107" priority="125" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="94" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="106" priority="126" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="95" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="105" priority="127" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="96" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="104" priority="128" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113:E119">
-    <cfRule type="containsText" dxfId="71" priority="89" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="103" priority="121" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="90" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="102" priority="122" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="91" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="101" priority="123" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="92" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="100" priority="124" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:E130">
-    <cfRule type="containsText" dxfId="67" priority="85" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="99" priority="117" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="86" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="98" priority="118" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="87" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="97" priority="119" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E124)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="88" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="96" priority="120" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E124)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:E141">
-    <cfRule type="containsText" dxfId="63" priority="81" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="95" priority="113" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="82" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="94" priority="114" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="83" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="93" priority="115" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="84" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="92" priority="116" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146:E152">
-    <cfRule type="containsText" dxfId="59" priority="77" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="91" priority="109" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="78" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="90" priority="110" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="79" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="89" priority="111" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E146)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="80" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="88" priority="112" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E146)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157:G163">
-    <cfRule type="containsText" dxfId="55" priority="73" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="87" priority="105" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="74" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="86" priority="106" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="75" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="85" priority="107" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="76" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="84" priority="108" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:G169 E171:G174 F170:G170">
-    <cfRule type="containsText" dxfId="51" priority="69" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="83" priority="101" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="70" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="82" priority="102" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="71" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="81" priority="103" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="72" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="80" priority="104" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E168)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179:G185">
-    <cfRule type="containsText" dxfId="47" priority="65" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="79" priority="97" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="66" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="78" priority="98" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="67" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="77" priority="99" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="68" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="76" priority="100" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190:E196">
-    <cfRule type="containsText" dxfId="43" priority="61" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="75" priority="93" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="62" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="74" priority="94" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="63" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="73" priority="95" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E190)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="64" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="72" priority="96" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E190)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D201:D207">
-    <cfRule type="containsText" dxfId="39" priority="57" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="71" priority="89" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",D201)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="58" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="70" priority="90" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",D201)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="59" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="69" priority="91" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D201)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="60" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="68" priority="92" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",D201)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E214:G218 F213:G213">
-    <cfRule type="containsText" dxfId="35" priority="45" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="67" priority="77" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="46" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="66" priority="78" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="47" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="65" priority="79" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="48" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="64" priority="80" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H213:I218">
-    <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="63" priority="73" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="42" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="62" priority="74" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",H213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="61" priority="75" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",H213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="44" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="60" priority="76" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",H213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F212:G212">
-    <cfRule type="containsText" dxfId="27" priority="37" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="59" priority="69" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",F212)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="38" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="58" priority="70" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F212)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="39" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="57" priority="71" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F212)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="40" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="56" priority="72" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F212)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H212:I212">
-    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="55" priority="65" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H212)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="34" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="54" priority="66" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",H212)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="53" priority="67" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",H212)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="36" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="52" priority="68" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",H212)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E223:E229">
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="51" priority="61" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="50" priority="62" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="49" priority="63" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E223)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="48" priority="64" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E223)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168:H174">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="Critical">
+    <cfRule type="containsText" dxfId="47" priority="57" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",H168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="26" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="46" priority="58" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",H168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="45" priority="59" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",H168)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="28" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="44" priority="60" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",H168)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="43" priority="51" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="42" priority="52" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="41" priority="49" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",G34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="40" priority="50" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="39" priority="47" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="38" priority="48" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="37" priority="45" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",H56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="36" priority="46" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",H56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E234:F240">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Critical">
+  <conditionalFormatting sqref="E234:E237">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",E234)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E234)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E234)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E234)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G234:G237">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",G234)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",G234)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",G234)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",G234)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F234:F237">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",F234)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F234)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F234)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F234)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F239">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",F239)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F239)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F239)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F239)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E237">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",E237)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E237)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E237)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E237)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G237">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",G237)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",G237)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",G237)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",G237)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F237">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",F237)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F237)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F237)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F237)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E239">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",E239)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E239)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E239)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E239)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G239">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",G239)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",G239)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",G239)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",G239)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
